--- a/my1stProject/apb_subsystem/apb_subsustem_design_arch.xlsx
+++ b/my1stProject/apb_subsystem/apb_subsustem_design_arch.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoC\demo\apb_subsystem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -26,8 +21,8 @@
     <definedName name="vsupply">#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -40,7 +35,7 @@
     <author>shashank</author>
   </authors>
   <commentList>
-    <comment ref="D27" authorId="0" shapeId="0">
+    <comment ref="D27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0" shapeId="0">
+    <comment ref="D41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D163" authorId="0" shapeId="0">
+    <comment ref="D163" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D164" authorId="0" shapeId="0">
+    <comment ref="D164" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D165" authorId="0" shapeId="0">
+    <comment ref="D165" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D166" authorId="0" shapeId="0">
+    <comment ref="D166" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="400">
   <si>
     <t>Target</t>
   </si>
@@ -1382,9 +1377,15 @@
     <t>uart</t>
   </si>
   <si>
+    <t>i_uarts</t>
+  </si>
+  <si>
     <t>i_uart_1</t>
   </si>
   <si>
+    <t>uart_1</t>
+  </si>
+  <si>
     <t>i_uartcrosser</t>
   </si>
   <si>
@@ -1473,19 +1474,13 @@
   </si>
   <si>
     <t>irq[14:4]</t>
-  </si>
-  <si>
-    <t>apbbus8</t>
-  </si>
-  <si>
-    <t>../apbmst/apbmst.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2563,27 +2558,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>3</v>
       </c>
@@ -2600,63 +2595,63 @@
       <c r="J1" s="101"/>
       <c r="K1" s="101"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="98"/>
       <c r="B2" s="99"/>
     </row>
-    <row r="6" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" ht="29.25" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" ht="29.25" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" ht="29.25" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" ht="29.25" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" ht="29.25" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16" s="9"/>
       <c r="D16" s="2"/>
     </row>
@@ -2671,14 +2666,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
@@ -2693,7 +2688,7 @@
     <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="96" t="s">
         <v>272</v>
       </c>
@@ -2705,12 +2700,12 @@
       <c r="E1" s="101"/>
       <c r="F1" s="101"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="98"/>
       <c r="B2" s="99"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
@@ -2742,7 +2737,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="21" t="s">
         <v>360</v>
       </c>
@@ -2762,11 +2757,9 @@
       <c r="G5" s="24"/>
       <c r="H5" s="25"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>362</v>
       </c>
@@ -2788,7 +2781,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="12" t="s">
         <v>364</v>
       </c>
@@ -2810,9 +2803,9 @@
       <c r="I7" s="17"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>358</v>
@@ -2832,9 +2825,9 @@
       <c r="I8" s="17"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>358</v>
@@ -2843,7 +2836,7 @@
         <v>359</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E9" s="23">
         <v>1.2</v>
@@ -2854,9 +2847,9 @@
       <c r="I9" s="17"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="18" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>358</v>
@@ -2865,7 +2858,7 @@
         <v>359</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E10" s="23">
         <v>1.2</v>
@@ -2875,28 +2868,18 @@
       <c r="H10" s="20"/>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1.2</v>
-      </c>
+    <row r="11" spans="1:10">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2907,7 +2890,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -2918,7 +2901,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -2940,14 +2923,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -2961,7 +2944,7 @@
     <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="96" t="s">
         <v>274</v>
       </c>
@@ -2973,12 +2956,12 @@
       <c r="E1" s="101"/>
       <c r="F1" s="101"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="98"/>
       <c r="B2" s="99"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>1</v>
       </c>
@@ -2998,163 +2981,163 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>360</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>362</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>362</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C11" t="s">
         <v>364</v>
       </c>
       <c r="D11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>362</v>
       </c>
       <c r="B12" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s">
         <v>364</v>
       </c>
       <c r="D12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>362</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C13" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D13" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>362</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>368</v>
       </c>
-      <c r="D15" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>367</v>
-      </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C16" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D16" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3162,7 +3145,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3181,14 +3164,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
@@ -3198,7 +3181,7 @@
     <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="96" t="s">
         <v>276</v>
       </c>
@@ -3212,11 +3195,11 @@
       <c r="G1" s="91"/>
       <c r="H1" s="91"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="98"/>
       <c r="B2" s="99"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3224,7 +3207,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>299</v>
       </c>
@@ -3244,121 +3227,121 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E8" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>362</v>
       </c>
       <c r="B9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>364</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>364</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>364</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>364</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E13" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>364</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E14" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>364</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E15" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -3370,14 +3353,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
@@ -3387,7 +3370,7 @@
     <col min="6" max="6" width="93.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
@@ -3404,21 +3387,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" s="38"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
       <c r="F3" s="40"/>
     </row>
-    <row r="4" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="41" customFormat="1">
       <c r="B4" s="42"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
       <c r="F4" s="44"/>
     </row>
-    <row r="5" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="41" customFormat="1">
       <c r="B5" s="45" t="s">
         <v>18</v>
       </c>
@@ -3431,7 +3414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="41" customFormat="1">
       <c r="B6" s="45" t="s">
         <v>21</v>
       </c>
@@ -3444,7 +3427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="41" customFormat="1">
       <c r="B7" s="45" t="s">
         <v>24</v>
       </c>
@@ -3457,7 +3440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="51" customFormat="1">
       <c r="A8" s="48"/>
       <c r="B8" s="49" t="s">
         <v>27</v>
@@ -3471,7 +3454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="51" customFormat="1">
       <c r="A9" s="48"/>
       <c r="B9" s="49" t="s">
         <v>313</v>
@@ -3485,7 +3468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="51" customFormat="1">
       <c r="A10" s="48"/>
       <c r="B10" s="49" t="s">
         <v>32</v>
@@ -3499,7 +3482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="51" customFormat="1">
       <c r="A11" s="48"/>
       <c r="B11" s="49" t="s">
         <v>35</v>
@@ -3513,7 +3496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="53"/>
       <c r="B12" s="45" t="s">
         <v>38</v>
@@ -3527,7 +3510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="B13" s="54" t="s">
         <v>314</v>
       </c>
@@ -3540,7 +3523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" s="45" t="s">
         <v>43</v>
       </c>
@@ -3553,7 +3536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15" s="56" t="s">
         <v>46</v>
       </c>
@@ -3566,7 +3549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" s="56" t="s">
         <v>49</v>
       </c>
@@ -3579,7 +3562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="58"/>
       <c r="B17" s="45" t="s">
         <v>52</v>
@@ -3593,7 +3576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="59"/>
       <c r="B18" s="45" t="s">
         <v>55</v>
@@ -3607,7 +3590,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="59"/>
       <c r="B19" s="45" t="s">
         <v>58</v>
@@ -3619,7 +3602,7 @@
       <c r="E19" s="104"/>
       <c r="F19" s="57"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="59"/>
       <c r="B20" s="45" t="s">
         <v>60</v>
@@ -3631,7 +3614,7 @@
       <c r="E20" s="104"/>
       <c r="F20" s="57"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="B21" s="45" t="s">
         <v>62</v>
       </c>
@@ -3641,13 +3624,13 @@
       <c r="D21" s="102"/>
       <c r="E21" s="104"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="B22" s="60"/>
       <c r="C22" s="55"/>
       <c r="D22" s="102"/>
       <c r="E22" s="104"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="B23" s="54" t="s">
         <v>315</v>
       </c>
@@ -3660,7 +3643,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="53"/>
       <c r="B24" s="61" t="s">
         <v>66</v>
@@ -3674,7 +3657,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="B25" s="54" t="s">
         <v>69</v>
       </c>
@@ -3687,7 +3670,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="53"/>
       <c r="B26" s="62" t="s">
         <v>72</v>
@@ -3701,7 +3684,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="B27" s="62" t="s">
         <v>75</v>
       </c>
@@ -3716,7 +3699,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="53"/>
       <c r="B28" s="62" t="s">
         <v>78</v>
@@ -3728,7 +3711,7 @@
       <c r="E28" s="104"/>
       <c r="F28" s="57"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="59"/>
       <c r="B29" s="54" t="s">
         <v>80</v>
@@ -3742,7 +3725,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="59"/>
       <c r="B30" s="54" t="s">
         <v>316</v>
@@ -3754,7 +3737,7 @@
       <c r="E30" s="104"/>
       <c r="F30" s="57"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="59"/>
       <c r="B31" s="45" t="s">
         <v>84</v>
@@ -3768,7 +3751,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="59"/>
       <c r="B32" s="45" t="s">
         <v>87</v>
@@ -3780,7 +3763,7 @@
       <c r="E32" s="104"/>
       <c r="F32" s="57"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="59"/>
       <c r="B33" s="45" t="s">
         <v>89</v>
@@ -3792,7 +3775,7 @@
       <c r="E33" s="104"/>
       <c r="F33" s="57"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="59"/>
       <c r="B34" s="45" t="s">
         <v>91</v>
@@ -3804,7 +3787,7 @@
       <c r="E34" s="104"/>
       <c r="F34" s="57"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="59"/>
       <c r="B35" s="62" t="s">
         <v>93</v>
@@ -3816,7 +3799,7 @@
       <c r="E35" s="104"/>
       <c r="F35" s="57"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="B36" s="62" t="s">
         <v>95</v>
       </c>
@@ -3827,14 +3810,14 @@
       <c r="E36" s="104"/>
       <c r="F36" s="57"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="B37" s="62"/>
       <c r="C37" s="55"/>
       <c r="D37" s="106"/>
       <c r="E37" s="104"/>
       <c r="F37" s="57"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="B38" s="54" t="s">
         <v>317</v>
       </c>
@@ -3847,7 +3830,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="B39" s="54" t="s">
         <v>318</v>
       </c>
@@ -3860,7 +3843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="59"/>
       <c r="B40" s="54" t="s">
         <v>319</v>
@@ -3876,7 +3859,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="B41" s="65" t="s">
         <v>320</v>
       </c>
@@ -3891,7 +3874,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="59"/>
       <c r="B42" s="54" t="s">
         <v>321</v>
@@ -3907,7 +3890,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="B43" s="54" t="s">
         <v>322</v>
       </c>
@@ -3920,7 +3903,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="B44" s="54" t="s">
         <v>111</v>
       </c>
@@ -3933,7 +3916,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="B45" s="54" t="s">
         <v>114</v>
       </c>
@@ -3944,14 +3927,14 @@
       <c r="E45" s="104"/>
       <c r="F45" s="57"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="B46" s="54"/>
       <c r="C46" s="66"/>
       <c r="D46" s="109"/>
       <c r="E46" s="104"/>
       <c r="F46" s="57"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="B47" s="45" t="s">
         <v>116</v>
       </c>
@@ -3964,7 +3947,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="B48" s="45" t="s">
         <v>119</v>
       </c>
@@ -3974,13 +3957,13 @@
       <c r="D48" s="109"/>
       <c r="E48" s="104"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="B49" s="67"/>
       <c r="C49" s="66"/>
       <c r="D49" s="109"/>
       <c r="E49" s="104"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="B50" s="54" t="s">
         <v>121</v>
       </c>
@@ -3993,7 +3976,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="B51" s="54" t="s">
         <v>124</v>
       </c>
@@ -4006,7 +3989,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="B52" s="54" t="s">
         <v>127</v>
       </c>
@@ -4019,7 +4002,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="B53" s="54" t="s">
         <v>130</v>
       </c>
@@ -4032,7 +4015,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="B54" s="54" t="s">
         <v>133</v>
       </c>
@@ -4045,7 +4028,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="B55" s="54" t="s">
         <v>136</v>
       </c>
@@ -4058,7 +4041,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="B56" s="54" t="s">
         <v>139</v>
       </c>
@@ -4071,14 +4054,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="B57" s="54"/>
       <c r="C57" s="66"/>
       <c r="D57" s="109"/>
       <c r="E57" s="104"/>
       <c r="F57" s="57"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="68"/>
       <c r="B58" s="54" t="s">
         <v>323</v>
@@ -4092,7 +4075,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="69"/>
       <c r="B59" s="54" t="s">
         <v>144</v>
@@ -4106,7 +4089,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="69"/>
       <c r="B60" s="54" t="s">
         <v>147</v>
@@ -4120,7 +4103,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="69"/>
       <c r="B61" s="54" t="s">
         <v>150</v>
@@ -4134,7 +4117,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="69"/>
       <c r="B62" s="54" t="s">
         <v>153</v>
@@ -4148,7 +4131,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="A63" s="70"/>
       <c r="B63" s="54" t="s">
         <v>155</v>
@@ -4162,7 +4145,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="70"/>
       <c r="B64" s="54" t="s">
         <v>324</v>
@@ -4176,7 +4159,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="70"/>
       <c r="B65" s="54" t="s">
         <v>160</v>
@@ -4190,7 +4173,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="70"/>
       <c r="B66" s="54" t="s">
         <v>163</v>
@@ -4204,7 +4187,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="70"/>
       <c r="B67" s="54" t="s">
         <v>166</v>
@@ -4218,7 +4201,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="B68" s="54" t="s">
         <v>169</v>
       </c>
@@ -4231,7 +4214,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="B69" s="54" t="s">
         <v>172</v>
       </c>
@@ -4244,7 +4227,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="B70" s="54" t="s">
         <v>175</v>
       </c>
@@ -4255,7 +4238,7 @@
       <c r="E70" s="71"/>
       <c r="F70" s="57"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="B71" s="54" t="s">
         <v>177</v>
       </c>
@@ -4268,28 +4251,28 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="B72" s="74"/>
       <c r="C72" s="75"/>
       <c r="D72" s="76"/>
       <c r="E72" s="77"/>
       <c r="F72" s="57"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="B73" s="74"/>
       <c r="C73" s="75"/>
       <c r="D73" s="76"/>
       <c r="E73" s="77"/>
       <c r="F73" s="57"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15.75" thickBot="1">
       <c r="B74" s="74"/>
       <c r="C74" s="75"/>
       <c r="D74" s="76"/>
       <c r="E74" s="77"/>
       <c r="F74" s="57"/>
     </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15.75" thickBot="1">
       <c r="A75" s="53" t="s">
         <v>180</v>
       </c>
@@ -4303,7 +4286,7 @@
       <c r="E75" s="77"/>
       <c r="F75" s="57"/>
     </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1">
       <c r="B76" s="80" t="s">
         <v>325</v>
       </c>
@@ -4314,7 +4297,7 @@
       <c r="E76" s="77"/>
       <c r="F76" s="57"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1">
       <c r="B77" s="82" t="s">
         <v>326</v>
       </c>
@@ -4325,7 +4308,7 @@
       <c r="E77" s="77"/>
       <c r="F77" s="57"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15.75" thickBot="1">
       <c r="B78" s="82" t="s">
         <v>327</v>
       </c>
@@ -4336,14 +4319,14 @@
       <c r="E78" s="77"/>
       <c r="F78" s="57"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15.75" thickBot="1">
       <c r="B79" s="82"/>
       <c r="C79" s="81"/>
       <c r="D79" s="76"/>
       <c r="E79" s="77"/>
       <c r="F79" s="57"/>
     </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15.75" thickBot="1">
       <c r="A80" s="53" t="s">
         <v>185</v>
       </c>
@@ -4357,7 +4340,7 @@
       <c r="E80" s="77"/>
       <c r="F80" s="57"/>
     </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15.75" thickBot="1">
       <c r="B81" s="80" t="s">
         <v>329</v>
       </c>
@@ -4368,7 +4351,7 @@
       <c r="E81" s="77"/>
       <c r="F81" s="57"/>
     </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="15.75" thickBot="1">
       <c r="B82" s="82" t="s">
         <v>330</v>
       </c>
@@ -4379,7 +4362,7 @@
       <c r="E82" s="77"/>
       <c r="F82" s="57"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15.75" thickBot="1">
       <c r="B83" s="82" t="s">
         <v>331</v>
       </c>
@@ -4390,14 +4373,14 @@
       <c r="E83" s="77"/>
       <c r="F83" s="57"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="B84" s="74"/>
       <c r="C84" s="75"/>
       <c r="D84" s="76"/>
       <c r="E84" s="77"/>
       <c r="F84" s="57"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="53" t="s">
         <v>190</v>
       </c>
@@ -4407,7 +4390,7 @@
       <c r="E85" s="77"/>
       <c r="F85" s="57"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="B86" s="74" t="s">
         <v>191</v>
       </c>
@@ -4418,7 +4401,7 @@
       <c r="E86" s="77"/>
       <c r="F86" s="57"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="B87" s="74" t="s">
         <v>193</v>
       </c>
@@ -4429,7 +4412,7 @@
       <c r="E87" s="77"/>
       <c r="F87" s="57"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="B88" s="74" t="s">
         <v>332</v>
       </c>
@@ -4440,7 +4423,7 @@
       <c r="E88" s="77"/>
       <c r="F88" s="57"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="B89" s="74" t="s">
         <v>196</v>
       </c>
@@ -4451,7 +4434,7 @@
       <c r="E89" s="77"/>
       <c r="F89" s="57"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="B90" s="74" t="s">
         <v>198</v>
       </c>
@@ -4462,7 +4445,7 @@
       <c r="E90" s="77"/>
       <c r="F90" s="57"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="B91" s="74" t="s">
         <v>269</v>
       </c>
@@ -4473,7 +4456,7 @@
       <c r="E91" s="77"/>
       <c r="F91" s="57"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="B92" s="74" t="s">
         <v>201</v>
       </c>
@@ -4484,14 +4467,14 @@
       <c r="E92" s="77"/>
       <c r="F92" s="57"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="B93" s="74"/>
       <c r="C93" s="75"/>
       <c r="D93" s="76"/>
       <c r="E93" s="77"/>
       <c r="F93" s="57"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="53" t="s">
         <v>203</v>
       </c>
@@ -4501,7 +4484,7 @@
       <c r="E94" s="77"/>
       <c r="F94" s="57"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="B95" s="74" t="s">
         <v>333</v>
       </c>
@@ -4512,7 +4495,7 @@
       <c r="E95" s="77"/>
       <c r="F95" s="57"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="B96" s="74" t="s">
         <v>205</v>
       </c>
@@ -4523,7 +4506,7 @@
       <c r="E96" s="77"/>
       <c r="F96" s="57"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="B97" s="74" t="s">
         <v>207</v>
       </c>
@@ -4534,7 +4517,7 @@
       <c r="E97" s="77"/>
       <c r="F97" s="57"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="B98" s="74" t="s">
         <v>209</v>
       </c>
@@ -4545,7 +4528,7 @@
       <c r="E98" s="77"/>
       <c r="F98" s="57"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="B99" s="74" t="s">
         <v>211</v>
       </c>
@@ -4556,7 +4539,7 @@
       <c r="E99" s="77"/>
       <c r="F99" s="57"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="B100" s="74" t="s">
         <v>213</v>
       </c>
@@ -4567,7 +4550,7 @@
       <c r="E100" s="77"/>
       <c r="F100" s="57"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="B101" s="74" t="s">
         <v>215</v>
       </c>
@@ -4578,7 +4561,7 @@
       <c r="E101" s="77"/>
       <c r="F101" s="57"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="B102" s="74" t="s">
         <v>217</v>
       </c>
@@ -4589,7 +4572,7 @@
       <c r="E102" s="77"/>
       <c r="F102" s="57"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="B103" s="74" t="s">
         <v>219</v>
       </c>
@@ -4600,7 +4583,7 @@
       <c r="E103" s="77"/>
       <c r="F103" s="57"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="B104" s="74" t="s">
         <v>221</v>
       </c>
@@ -4611,7 +4594,7 @@
       <c r="E104" s="77"/>
       <c r="F104" s="57"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="B105" s="74" t="s">
         <v>223</v>
       </c>
@@ -4622,7 +4605,7 @@
       <c r="E105" s="77"/>
       <c r="F105" s="57"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="B106" s="74" t="s">
         <v>334</v>
       </c>
@@ -4633,14 +4616,14 @@
       <c r="E106" s="77"/>
       <c r="F106" s="57"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="B107" s="74"/>
       <c r="C107" s="75"/>
       <c r="D107" s="76"/>
       <c r="E107" s="77"/>
       <c r="F107" s="57"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="53" t="s">
         <v>226</v>
       </c>
@@ -4654,7 +4637,7 @@
       <c r="E108" s="77"/>
       <c r="F108" s="57"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="B109" s="74" t="s">
         <v>335</v>
       </c>
@@ -4665,14 +4648,14 @@
       <c r="E109" s="77"/>
       <c r="F109" s="57"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="B110" s="74"/>
       <c r="C110" s="75"/>
       <c r="D110" s="76"/>
       <c r="E110" s="77"/>
       <c r="F110" s="57"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="53" t="s">
         <v>230</v>
       </c>
@@ -4682,7 +4665,7 @@
       <c r="E111" s="77"/>
       <c r="F111" s="57"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="B112" s="74" t="s">
         <v>336</v>
       </c>
@@ -4693,7 +4676,7 @@
       <c r="E112" s="77"/>
       <c r="F112" s="57"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="B113" s="74" t="s">
         <v>337</v>
       </c>
@@ -4704,7 +4687,7 @@
       <c r="E113" s="77"/>
       <c r="F113" s="57"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="B114" s="74" t="s">
         <v>338</v>
       </c>
@@ -4715,7 +4698,7 @@
       <c r="E114" s="77"/>
       <c r="F114" s="57"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="B115" s="74" t="s">
         <v>339</v>
       </c>
@@ -4726,7 +4709,7 @@
       <c r="E115" s="77"/>
       <c r="F115" s="57"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="B116" s="74" t="s">
         <v>340</v>
       </c>
@@ -4737,7 +4720,7 @@
       <c r="E116" s="77"/>
       <c r="F116" s="57"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="B117" s="74" t="s">
         <v>341</v>
       </c>
@@ -4748,7 +4731,7 @@
       <c r="E117" s="77"/>
       <c r="F117" s="57"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="B118" s="74" t="s">
         <v>342</v>
       </c>
@@ -4759,7 +4742,7 @@
       <c r="E118" s="77"/>
       <c r="F118" s="57"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="B119" s="74" t="s">
         <v>343</v>
       </c>
@@ -4770,14 +4753,14 @@
       <c r="E119" s="77"/>
       <c r="F119" s="57"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="B120" s="74"/>
       <c r="C120" s="75"/>
       <c r="D120" s="76"/>
       <c r="E120" s="77"/>
       <c r="F120" s="57"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="53" t="s">
         <v>272</v>
       </c>
@@ -4787,7 +4770,7 @@
       <c r="E121" s="77"/>
       <c r="F121" s="57"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="B122" s="74" t="s">
         <v>10</v>
       </c>
@@ -4798,7 +4781,7 @@
       <c r="E122" s="77"/>
       <c r="F122" s="57"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="B123" s="74" t="s">
         <v>6</v>
       </c>
@@ -4809,7 +4792,7 @@
       <c r="E123" s="77"/>
       <c r="F123" s="57"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="B124" s="74" t="s">
         <v>5</v>
       </c>
@@ -4820,7 +4803,7 @@
       <c r="E124" s="77"/>
       <c r="F124" s="57"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="B125" s="74" t="s">
         <v>7</v>
       </c>
@@ -4831,7 +4814,7 @@
       <c r="E125" s="77"/>
       <c r="F125" s="57"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="B126" s="74" t="s">
         <v>344</v>
       </c>
@@ -4842,7 +4825,7 @@
       <c r="E126" s="77"/>
       <c r="F126" s="57"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="B127" s="74" t="s">
         <v>270</v>
       </c>
@@ -4853,7 +4836,7 @@
       <c r="E127" s="77"/>
       <c r="F127" s="57"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="B128" s="74" t="s">
         <v>11</v>
       </c>
@@ -4864,7 +4847,7 @@
       <c r="E128" s="77"/>
       <c r="F128" s="57"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="B129" s="74" t="s">
         <v>12</v>
       </c>
@@ -4875,7 +4858,7 @@
       <c r="E129" s="77"/>
       <c r="F129" s="57"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="B130" s="74" t="s">
         <v>345</v>
       </c>
@@ -4886,7 +4869,7 @@
       <c r="E130" s="77"/>
       <c r="F130" s="57"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="B131" s="74" t="s">
         <v>346</v>
       </c>
@@ -4897,21 +4880,21 @@
       <c r="E131" s="77"/>
       <c r="F131" s="57"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="B132" s="74"/>
       <c r="C132" s="75"/>
       <c r="D132" s="76"/>
       <c r="E132" s="77"/>
       <c r="F132" s="57"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="B133" s="74"/>
       <c r="C133" s="75"/>
       <c r="D133" s="76"/>
       <c r="E133" s="77"/>
       <c r="F133" s="57"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" s="53" t="s">
         <v>274</v>
       </c>
@@ -4921,7 +4904,7 @@
       <c r="E134" s="77"/>
       <c r="F134" s="57"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="B135" s="74" t="s">
         <v>1</v>
       </c>
@@ -4932,7 +4915,7 @@
       <c r="E135" s="77"/>
       <c r="F135" s="57"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="B136" s="74" t="s">
         <v>347</v>
       </c>
@@ -4943,7 +4926,7 @@
       <c r="E136" s="77"/>
       <c r="F136" s="57"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="B137" s="74" t="s">
         <v>0</v>
       </c>
@@ -4954,7 +4937,7 @@
       <c r="E137" s="77"/>
       <c r="F137" s="57"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="B138" s="74" t="s">
         <v>348</v>
       </c>
@@ -4965,7 +4948,7 @@
       <c r="E138" s="77"/>
       <c r="F138" s="57"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="B139" s="74" t="s">
         <v>349</v>
       </c>
@@ -4976,7 +4959,7 @@
       <c r="E139" s="77"/>
       <c r="F139" s="57"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="B140" s="74" t="s">
         <v>350</v>
       </c>
@@ -4987,14 +4970,14 @@
       <c r="E140" s="77"/>
       <c r="F140" s="57"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="B141" s="74"/>
       <c r="C141" s="75"/>
       <c r="D141" s="76"/>
       <c r="E141" s="77"/>
       <c r="F141" s="57"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" s="53" t="s">
         <v>276</v>
       </c>
@@ -5004,7 +4987,7 @@
       <c r="E142" s="77"/>
       <c r="F142" s="57"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="B143" s="74" t="s">
         <v>351</v>
       </c>
@@ -5015,7 +4998,7 @@
       <c r="E143" s="77"/>
       <c r="F143" s="57"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="B144" s="74" t="s">
         <v>352</v>
       </c>
@@ -5026,7 +5009,7 @@
       <c r="E144" s="77"/>
       <c r="F144" s="57"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="B145" s="74" t="s">
         <v>303</v>
       </c>
@@ -5037,7 +5020,7 @@
       <c r="E145" s="77"/>
       <c r="F145" s="57"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="B146" s="74" t="s">
         <v>353</v>
       </c>
@@ -5048,7 +5031,7 @@
       <c r="E146" s="77"/>
       <c r="F146" s="57"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="B147" s="74" t="s">
         <v>354</v>
       </c>
@@ -5059,7 +5042,7 @@
       <c r="E147" s="77"/>
       <c r="F147" s="57"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="B148" s="74" t="s">
         <v>355</v>
       </c>
@@ -5070,7 +5053,7 @@
       <c r="E148" s="77"/>
       <c r="F148" s="57"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" s="53" t="s">
         <v>239</v>
       </c>
@@ -5080,7 +5063,7 @@
       <c r="E149" s="77"/>
       <c r="F149" s="57"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="B150" s="74" t="s">
         <v>356</v>
       </c>
@@ -5091,7 +5074,7 @@
       <c r="E150" s="77"/>
       <c r="F150" s="57"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="B151" s="74" t="s">
         <v>241</v>
       </c>
@@ -5102,7 +5085,7 @@
       <c r="E151" s="77"/>
       <c r="F151" s="57"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="B152" s="74" t="s">
         <v>243</v>
       </c>
@@ -5113,7 +5096,7 @@
       <c r="E152" s="77"/>
       <c r="F152" s="57"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="B153" s="74" t="s">
         <v>245</v>
       </c>
@@ -5124,7 +5107,7 @@
       <c r="E153" s="77"/>
       <c r="F153" s="57"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="B154" s="74" t="s">
         <v>247</v>
       </c>
@@ -5135,7 +5118,7 @@
       <c r="E154" s="77"/>
       <c r="F154" s="57"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="B155" s="74" t="s">
         <v>249</v>
       </c>
@@ -5146,42 +5129,42 @@
       <c r="E155" s="77"/>
       <c r="F155" s="57"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="B156" s="74"/>
       <c r="C156" s="75"/>
       <c r="D156" s="76"/>
       <c r="E156" s="77"/>
       <c r="F156" s="57"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="B157" s="74"/>
       <c r="C157" s="75"/>
       <c r="D157" s="76"/>
       <c r="E157" s="77"/>
       <c r="F157" s="57"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="B158" s="74"/>
       <c r="C158" s="75"/>
       <c r="D158" s="76"/>
       <c r="E158" s="77"/>
       <c r="F158" s="57"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="B159" s="74"/>
       <c r="C159" s="75"/>
       <c r="D159" s="76"/>
       <c r="E159" s="77"/>
       <c r="F159" s="57"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="B160" s="74"/>
       <c r="C160" s="75"/>
       <c r="D160" s="76"/>
       <c r="E160" s="77"/>
       <c r="F160" s="57"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" s="110" t="s">
         <v>9</v>
       </c>
@@ -5201,7 +5184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" s="111"/>
       <c r="B163" s="45" t="s">
         <v>251</v>
@@ -5215,7 +5198,7 @@
       </c>
       <c r="F163" s="57"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" s="111"/>
       <c r="B164" s="54" t="s">
         <v>254</v>
@@ -5229,7 +5212,7 @@
       </c>
       <c r="F164" s="57"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165" s="111"/>
       <c r="B165" s="45" t="s">
         <v>256</v>
@@ -5243,7 +5226,7 @@
       </c>
       <c r="F165" s="57"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" s="111"/>
       <c r="B166" s="45" t="s">
         <v>258</v>
@@ -5257,58 +5240,58 @@
       </c>
       <c r="F166" s="57"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" s="84"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" s="84"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" s="84"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="C171" s="85" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="D172" s="86" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="D173" s="86" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="D174" s="86" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="D175" s="87" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="D176" s="47" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:5">
       <c r="D177" s="88"/>
       <c r="E177" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:5">
       <c r="D178" s="89"/>
       <c r="E178" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:5">
       <c r="D179" s="95"/>
       <c r="E179" t="s">
         <v>268</v>

--- a/my1stProject/apb_subsystem/apb_subsustem_design_arch.xlsx
+++ b/my1stProject/apb_subsystem/apb_subsustem_design_arch.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anupam\git\hello-world\my1stProject\apb_subsystem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -20,9 +25,9 @@
     <definedName name="digital">#REF!</definedName>
     <definedName name="vsupply">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +40,7 @@
     <author>shashank</author>
   </authors>
   <commentList>
-    <comment ref="D27" authorId="0">
+    <comment ref="D27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0">
+    <comment ref="D41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D163" authorId="0">
+    <comment ref="D163" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D164" authorId="0">
+    <comment ref="D164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D165" authorId="0">
+    <comment ref="D165" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D166" authorId="0">
+    <comment ref="D166" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="442">
   <si>
     <t>Target</t>
   </si>
@@ -1308,9 +1313,6 @@
     <t>remapAddressValue</t>
   </si>
   <si>
-    <t>Library Name</t>
-  </si>
-  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -1383,9 +1385,6 @@
     <t>i_uart_1</t>
   </si>
   <si>
-    <t>uart_1</t>
-  </si>
-  <si>
     <t>i_uartcrosser</t>
   </si>
   <si>
@@ -1464,23 +1463,155 @@
     <t>ntrace</t>
   </si>
   <si>
-    <t>{gnd=0}</t>
-  </si>
-  <si>
     <t>freezetime</t>
   </si>
   <si>
-    <t>{vcc=1}</t>
-  </si>
-  <si>
     <t>irq[14:4]</t>
+  </si>
+  <si>
+    <t>MirroredSlave4</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB</t>
+  </si>
+  <si>
+    <t>ambaAHB</t>
+  </si>
+  <si>
+    <t>MirroredSlave5</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv5</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv6</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv7</t>
+  </si>
+  <si>
+    <t>MirroredSlave6</t>
+  </si>
+  <si>
+    <t>MirroredSlave7</t>
+  </si>
+  <si>
+    <t>MasterInt</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>rangeSlv0</t>
+  </si>
+  <si>
+    <t>rangeSlv1</t>
+  </si>
+  <si>
+    <t>rangeSlv2</t>
+  </si>
+  <si>
+    <t>rangeSlv3</t>
+  </si>
+  <si>
+    <t>rangeSlv4</t>
+  </si>
+  <si>
+    <t>rangeSlv5</t>
+  </si>
+  <si>
+    <t>rangeSlv6</t>
+  </si>
+  <si>
+    <t>rangeSlv7</t>
+  </si>
+  <si>
+    <t>remapAddressSlv0</t>
+  </si>
+  <si>
+    <t>remapAddressSlv1</t>
+  </si>
+  <si>
+    <t>remapAddressSlv2</t>
+  </si>
+  <si>
+    <t>remapAddressSlv3</t>
+  </si>
+  <si>
+    <t>remapAddressSlv4</t>
+  </si>
+  <si>
+    <t>remapAddressSlv5</t>
+  </si>
+  <si>
+    <t>remapAddressSlv6</t>
+  </si>
+  <si>
+    <t>remapAddressSlv7</t>
+  </si>
+  <si>
+    <t>masterRange</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>TPRESC</t>
+  </si>
+  <si>
+    <t>ClockPeriod</t>
+  </si>
+  <si>
+    <t>ClockPulseDuration</t>
+  </si>
+  <si>
+    <t>ClockPulseOffset</t>
+  </si>
+  <si>
+    <t>ClockPulseValue</t>
+  </si>
+  <si>
+    <t>EXTBAUD</t>
+  </si>
+  <si>
+    <t>VirtualClockPeriod</t>
+  </si>
+  <si>
+    <t>VirtualClockPulseDuration</t>
+  </si>
+  <si>
+    <t>VirtualClockPulseOffset</t>
+  </si>
+  <si>
+    <t>VirtualClockPulseValue</t>
+  </si>
+  <si>
+    <t>id_OutputFileName</t>
+  </si>
+  <si>
+    <t>default.htm</t>
+  </si>
+  <si>
+    <t>ScalerValue</t>
+  </si>
+  <si>
+    <t>apbbus</t>
+  </si>
+  <si>
+    <t>0x1</t>
+  </si>
+  <si>
+    <t>find</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1672,7 +1803,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1846,19 +1977,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2019,11 +2137,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2045,15 +2209,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2061,9 +2216,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2072,39 +2224,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2115,7 +2248,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2179,10 +2312,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2200,43 +2333,97 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2250,47 +2437,69 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2558,100 +2767,100 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="100" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="107" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-    </row>
-    <row r="6" spans="1:11" ht="29.25" thickBot="1">
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+    </row>
+    <row r="6" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="29.25" thickBot="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="29.25" thickBot="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29.25" thickBot="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="29.25" thickBot="1">
+    <row r="15" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="D16" s="2"/>
     </row>
@@ -2666,14 +2875,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
@@ -2681,236 +2890,861 @@
     <col min="4" max="4" width="14.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="10" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="33" style="11" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="33" style="97" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="97" customWidth="1"/>
     <col min="9" max="9" width="28" style="10" customWidth="1"/>
     <col min="10" max="10" width="44" style="10" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="100" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="107" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A4" s="26" t="s">
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="81" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="85" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" s="85">
+        <v>1.3</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="85" t="s">
+        <v>408</v>
+      </c>
+      <c r="H6" s="85">
+        <v>4096</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="85" t="s">
+        <v>409</v>
+      </c>
+      <c r="H7" s="85">
+        <v>4096</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="85" t="s">
+        <v>410</v>
+      </c>
+      <c r="H8" s="85">
+        <v>4096</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="85" t="s">
+        <v>411</v>
+      </c>
+      <c r="H9" s="85">
+        <v>4096</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="85" t="s">
+        <v>412</v>
+      </c>
+      <c r="H10" s="85">
+        <v>4096</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="H11" s="85">
+        <v>4096</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="85" t="s">
+        <v>414</v>
+      </c>
+      <c r="H12" s="85">
+        <v>4096</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="85" t="s">
+        <v>415</v>
+      </c>
+      <c r="H13" s="85">
+        <v>4096</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="85" t="s">
+        <v>417</v>
+      </c>
+      <c r="H15" s="85" t="str">
+        <f>"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(H14,LEN(H14)-2))+HEX2DEC(1000))</f>
+        <v>0x1000</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="85" t="s">
+        <v>418</v>
+      </c>
+      <c r="H16" s="85" t="str">
+        <f t="shared" ref="H16:H21" si="0">"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(H15,LEN(H15)-2))+HEX2DEC(1000))</f>
+        <v>0x2000</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="85" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>0x3000</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="85" t="s">
+        <v>420</v>
+      </c>
+      <c r="H18" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>0x4000</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="85" t="s">
+        <v>421</v>
+      </c>
+      <c r="H19" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>0x5000</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="85" t="s">
+        <v>422</v>
+      </c>
+      <c r="H20" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>0x6000</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="85" t="s">
+        <v>423</v>
+      </c>
+      <c r="H21" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>0x7000</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="85" t="s">
+        <v>359</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="E22" s="85">
+        <v>1.2</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="91"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="91" t="s">
+        <v>424</v>
+      </c>
+      <c r="H23" s="96" t="s">
+        <v>425</v>
+      </c>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="86" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="87" t="s">
+        <v>357</v>
+      </c>
+      <c r="C24" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="D24" s="88" t="s">
+        <v>362</v>
+      </c>
+      <c r="E24" s="87">
         <v>1.2</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="F24" s="11"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="86" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D25" s="88" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25" s="87">
         <v>1.2</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A7" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="H26" s="102">
+        <v>22</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="86" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="D27" s="88" t="s">
         <v>365</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E27" s="89">
         <v>1.2</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="12" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="86"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="99" t="s">
+        <v>427</v>
+      </c>
+      <c r="H28" s="22">
+        <v>8</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="86"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="99" t="s">
+        <v>428</v>
+      </c>
+      <c r="H29" s="22">
+        <v>4</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="86"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="H30" s="22">
+        <v>4</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="86"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="99" t="s">
+        <v>430</v>
+      </c>
+      <c r="H31" s="22">
+        <v>1</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="86"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="99" t="s">
+        <v>431</v>
+      </c>
+      <c r="H32" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="86"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="99" t="s">
+        <v>432</v>
+      </c>
+      <c r="H33" s="22">
+        <v>8</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="86"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="99" t="s">
+        <v>433</v>
+      </c>
+      <c r="H34" s="22">
+        <v>4</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="86"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="99" t="s">
+        <v>434</v>
+      </c>
+      <c r="H35" s="22">
+        <v>4</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="86"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="99" t="s">
+        <v>435</v>
+      </c>
+      <c r="H36" s="22">
+        <v>1</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="86" t="s">
         <v>367</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B37" s="87" t="s">
+        <v>357</v>
+      </c>
+      <c r="C37" s="89" t="s">
         <v>358</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D37" s="88" t="s">
+        <v>365</v>
+      </c>
+      <c r="E37" s="87">
         <v>1.2</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A9" s="12" t="s">
+      <c r="F37" s="11"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="86"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="99" t="s">
+        <v>427</v>
+      </c>
+      <c r="H38" s="22">
+        <v>8</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="86"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="99" t="s">
+        <v>428</v>
+      </c>
+      <c r="H39" s="22">
+        <v>4</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="86"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="H40" s="22">
+        <v>4</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="86"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="99" t="s">
+        <v>430</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="86"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="99" t="s">
+        <v>431</v>
+      </c>
+      <c r="H42" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="86"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="99" t="s">
+        <v>436</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="86"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="99" t="s">
+        <v>432</v>
+      </c>
+      <c r="H44" s="22">
+        <v>8</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="86"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="99" t="s">
+        <v>433</v>
+      </c>
+      <c r="H45" s="22">
+        <v>4</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="86"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="99" t="s">
+        <v>434</v>
+      </c>
+      <c r="H46" s="22">
+        <v>4</v>
+      </c>
+      <c r="I46" s="13"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="86"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="99" t="s">
+        <v>435</v>
+      </c>
+      <c r="H47" s="22">
+        <v>1</v>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="90" t="s">
         <v>368</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B48" s="87" t="s">
+        <v>357</v>
+      </c>
+      <c r="C48" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="D48" s="90" t="s">
         <v>369</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E48" s="87">
         <v>1.2</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="18"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="100" t="s">
+        <v>438</v>
+      </c>
+      <c r="H49" s="100" t="s">
+        <v>440</v>
+      </c>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2923,14 +3757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -2944,208 +3778,294 @@
     <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="100" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="107" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="30" t="s">
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="82" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" t="s">
         <v>373</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" t="s">
         <v>377</v>
       </c>
-      <c r="B9" t="s">
-        <v>372</v>
-      </c>
-      <c r="C9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" t="s">
         <v>368</v>
       </c>
-      <c r="B10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C10" t="s">
-        <v>373</v>
-      </c>
-      <c r="D10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C11" t="s">
-        <v>364</v>
-      </c>
-      <c r="D11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B12" t="s">
-        <v>382</v>
-      </c>
-      <c r="C12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>362</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" t="s">
+        <v>368</v>
+      </c>
+      <c r="D16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19" t="s">
+        <v>401</v>
+      </c>
+      <c r="C19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>407</v>
+      </c>
+      <c r="B20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B21" t="s">
+        <v>403</v>
+      </c>
+      <c r="C21" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B14" t="s">
-        <v>385</v>
-      </c>
-      <c r="C14" t="s">
-        <v>368</v>
-      </c>
-      <c r="D14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>377</v>
-      </c>
-      <c r="B15" t="s">
-        <v>387</v>
-      </c>
-      <c r="C15" t="s">
-        <v>370</v>
-      </c>
-      <c r="D15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>368</v>
-      </c>
-      <c r="B16" t="s">
-        <v>387</v>
-      </c>
-      <c r="C16" t="s">
-        <v>370</v>
-      </c>
-      <c r="D16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3158,20 +4078,30 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A6:XFD22">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
@@ -3181,25 +4111,25 @@
     <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="90" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="79" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3207,141 +4137,141 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="83" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" t="s">
         <v>368</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12" t="s">
         <v>390</v>
       </c>
-      <c r="C6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C7" t="s">
-        <v>370</v>
-      </c>
-      <c r="D7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B9" t="s">
-        <v>399</v>
-      </c>
-      <c r="E9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" t="s">
         <v>391</v>
       </c>
-      <c r="E10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" t="s">
         <v>393</v>
       </c>
-      <c r="E11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>364</v>
-      </c>
-      <c r="B12" t="s">
-        <v>392</v>
-      </c>
-      <c r="E12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>364</v>
-      </c>
-      <c r="B13" t="s">
-        <v>393</v>
-      </c>
-      <c r="E13" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>364</v>
-      </c>
-      <c r="B15" t="s">
-        <v>395</v>
-      </c>
-      <c r="E15" t="s">
-        <v>398</v>
+      <c r="D15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3353,14 +4283,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
@@ -3370,1929 +4300,1929 @@
     <col min="6" max="6" width="93.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:6" s="41" customFormat="1">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-    </row>
-    <row r="5" spans="1:6" s="41" customFormat="1">
-      <c r="B5" s="45" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="47" t="s">
+      <c r="D5" s="109"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="41" customFormat="1">
-      <c r="B6" s="45" t="s">
+    <row r="6" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="109"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="41" customFormat="1">
-      <c r="B7" s="45" t="s">
+    <row r="7" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="47" t="s">
+      <c r="D7" s="109"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="51" customFormat="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49" t="s">
+    <row r="8" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="47" t="s">
+      <c r="D8" s="109"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="51" customFormat="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="47" t="s">
+      <c r="D9" s="109"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="51" customFormat="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49" t="s">
+    <row r="10" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="47" t="s">
+      <c r="D10" s="109"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="51" customFormat="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
+    <row r="11" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="52" t="s">
+      <c r="D11" s="109"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="53"/>
-      <c r="B12" s="45" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="52" t="s">
+      <c r="D12" s="109"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="B13" s="54" t="s">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="47" t="s">
+      <c r="D13" s="109"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="45" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="47" t="s">
+      <c r="D14" s="109"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="56" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="47" t="s">
+      <c r="D15" s="109"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="56" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="57" t="s">
+      <c r="D16" s="109"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="58"/>
-      <c r="B17" s="45" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="57" t="s">
+      <c r="D17" s="109"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="59"/>
-      <c r="B18" s="45" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="57" t="s">
+      <c r="D18" s="109"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="59"/>
-      <c r="B19" s="45" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="57"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="59"/>
-      <c r="B20" s="45" t="s">
+      <c r="D19" s="109"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="57"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="45" t="s">
+      <c r="D20" s="109"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="46"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="104"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" s="60"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="104"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" s="54" t="s">
+      <c r="D21" s="109"/>
+      <c r="E21" s="111"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="49"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="111"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="57" t="s">
+      <c r="D23" s="109"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="46" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="53"/>
-      <c r="B24" s="61" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="57" t="s">
+      <c r="D24" s="109"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="54" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="57" t="s">
+      <c r="D25" s="109"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="53"/>
-      <c r="B26" s="62" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="103"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="57" t="s">
+      <c r="D26" s="110"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="46" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="62" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="104"/>
-      <c r="F27" s="57" t="s">
+      <c r="E27" s="111"/>
+      <c r="F27" s="46" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="53"/>
-      <c r="B28" s="62" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="57"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="59"/>
-      <c r="B29" s="54" t="s">
+      <c r="D28" s="112"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="46"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="57" t="s">
+      <c r="D29" s="113"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="59"/>
-      <c r="B30" s="54" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="106"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="57"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="59"/>
-      <c r="B31" s="45" t="s">
+      <c r="D30" s="113"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="46"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="106"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="57" t="s">
+      <c r="D31" s="113"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="46" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="59"/>
-      <c r="B32" s="45" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
+      <c r="B32" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="106"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="57"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="59"/>
-      <c r="B33" s="45" t="s">
+      <c r="D32" s="113"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="46"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
+      <c r="B33" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="106"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="57"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="59"/>
-      <c r="B34" s="45" t="s">
+      <c r="D33" s="113"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="46"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="48"/>
+      <c r="B34" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="106"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="57"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="59"/>
-      <c r="B35" s="62" t="s">
+      <c r="D34" s="113"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="46"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="106"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="57"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="B36" s="62" t="s">
+      <c r="D35" s="113"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="46"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="106"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="57"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="B37" s="62"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="57"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="54" t="s">
+      <c r="D36" s="113"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="46"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="51"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="46"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="106"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="57" t="s">
+      <c r="D38" s="113"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="46" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="54" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="107"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="57" t="s">
+      <c r="D39" s="114"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="46" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="59"/>
-      <c r="B40" s="54" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="48"/>
+      <c r="B40" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="104"/>
-      <c r="F40" s="57" t="s">
+      <c r="E40" s="111"/>
+      <c r="F40" s="46" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="65" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="104"/>
-      <c r="F41" s="57" t="s">
+      <c r="E41" s="111"/>
+      <c r="F41" s="46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="59"/>
-      <c r="B42" s="54" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="48"/>
+      <c r="B42" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="104"/>
-      <c r="F42" s="57" t="s">
+      <c r="E42" s="111"/>
+      <c r="F42" s="46" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="54" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="108"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="57" t="s">
+      <c r="D43" s="115"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="46" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="54" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="109"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="57" t="s">
+      <c r="D44" s="116"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="46" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="B45" s="54" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="109"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="57"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46" s="54"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="57"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47" s="45" t="s">
+      <c r="D45" s="116"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="46"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="43"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="46"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="109"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="57" t="s">
+      <c r="D47" s="116"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="46" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="B48" s="45" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="109"/>
-      <c r="E48" s="104"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="B49" s="67"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="104"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="B50" s="54" t="s">
+      <c r="D48" s="116"/>
+      <c r="E48" s="111"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="56"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="111"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="109"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="57" t="s">
+      <c r="D50" s="116"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="46" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="B51" s="54" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="109"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="57" t="s">
+      <c r="D51" s="116"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="46" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="B52" s="54" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="109"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="57" t="s">
+      <c r="D52" s="116"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="46" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="B53" s="54" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="109"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="57" t="s">
+      <c r="D53" s="116"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="46" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="B54" s="54" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="109"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="57" t="s">
+      <c r="D54" s="116"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="46" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="B55" s="54" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="109"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="57" t="s">
+      <c r="D55" s="116"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="B56" s="54" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="109"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="57" t="s">
+      <c r="D56" s="116"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="46" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="B57" s="54"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="109"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="57"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="68"/>
-      <c r="B58" s="54" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="43"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="46"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="57"/>
+      <c r="B58" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="109"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="57" t="s">
+      <c r="D58" s="116"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="46" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="69"/>
-      <c r="B59" s="54" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="58"/>
+      <c r="B59" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D59" s="109"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="57" t="s">
+      <c r="D59" s="116"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="46" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="69"/>
-      <c r="B60" s="54" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="58"/>
+      <c r="B60" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="109"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="57" t="s">
+      <c r="D60" s="116"/>
+      <c r="E60" s="111"/>
+      <c r="F60" s="46" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="69"/>
-      <c r="B61" s="54" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="58"/>
+      <c r="B61" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="109"/>
-      <c r="E61" s="104"/>
-      <c r="F61" s="57" t="s">
+      <c r="D61" s="116"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="46" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="69"/>
-      <c r="B62" s="54" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="58"/>
+      <c r="B62" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="109"/>
-      <c r="E62" s="104"/>
-      <c r="F62" s="57" t="s">
+      <c r="D62" s="116"/>
+      <c r="E62" s="111"/>
+      <c r="F62" s="46" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1">
-      <c r="A63" s="70"/>
-      <c r="B63" s="54" t="s">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="59"/>
+      <c r="B63" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="109"/>
-      <c r="E63" s="104"/>
-      <c r="F63" s="57" t="s">
+      <c r="D63" s="116"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="46" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="70"/>
-      <c r="B64" s="54" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="59"/>
+      <c r="B64" s="43" t="s">
         <v>324</v>
       </c>
-      <c r="C64" s="66" t="s">
+      <c r="C64" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="D64" s="109"/>
-      <c r="E64" s="104"/>
-      <c r="F64" s="57" t="s">
+      <c r="D64" s="116"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="46" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="70"/>
-      <c r="B65" s="54" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="59"/>
+      <c r="B65" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="109"/>
-      <c r="E65" s="104"/>
-      <c r="F65" s="57" t="s">
+      <c r="D65" s="116"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="46" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="70"/>
-      <c r="B66" s="54" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="59"/>
+      <c r="B66" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="C66" s="66" t="s">
+      <c r="C66" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="D66" s="109"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="57" t="s">
+      <c r="D66" s="116"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="46" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="70"/>
-      <c r="B67" s="54" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="59"/>
+      <c r="B67" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="66" t="s">
+      <c r="C67" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="D67" s="109"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="57" t="s">
+      <c r="D67" s="116"/>
+      <c r="E67" s="111"/>
+      <c r="F67" s="46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="B68" s="54" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="109"/>
-      <c r="E68" s="104"/>
-      <c r="F68" s="57" t="s">
+      <c r="D68" s="116"/>
+      <c r="E68" s="111"/>
+      <c r="F68" s="46" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="B69" s="54" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="66" t="s">
+      <c r="C69" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="D69" s="95"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="57" t="s">
+      <c r="D69" s="84"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="46" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="B70" s="54" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D70" s="95"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="57"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="B71" s="54" t="s">
+      <c r="D70" s="84"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="46"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C71" s="66" t="s">
+      <c r="C71" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="D71" s="72"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="57" t="s">
+      <c r="D71" s="61"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="46" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="B72" s="74"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="57"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="B73" s="74"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="57"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B74" s="74"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="57"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A75" s="53" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="63"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="46"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="46"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="63"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="46"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="B75" s="78" t="s">
+      <c r="B75" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="79" t="s">
+      <c r="C75" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="D75" s="76"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="57"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B76" s="80" t="s">
+      <c r="D75" s="65"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="46"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="69" t="s">
         <v>325</v>
       </c>
-      <c r="C76" s="81" t="s">
+      <c r="C76" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="D76" s="76"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="57"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B77" s="82" t="s">
+      <c r="D76" s="65"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="46"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="C77" s="81" t="s">
+      <c r="C77" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="D77" s="76"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="57"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B78" s="82" t="s">
+      <c r="D77" s="65"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="46"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="C78" s="81" t="s">
+      <c r="C78" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="76"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="57"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B79" s="82"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="76"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="57"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A80" s="53" t="s">
+      <c r="D78" s="65"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="46"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="71"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="46"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="B80" s="82" t="s">
+      <c r="B80" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="C80" s="81" t="s">
+      <c r="C80" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="D80" s="76"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="57"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B81" s="80" t="s">
+      <c r="D80" s="65"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="46"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="C81" s="81" t="s">
+      <c r="C81" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="D81" s="76"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="57"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B82" s="82" t="s">
+      <c r="D81" s="65"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="46"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="C82" s="81" t="s">
+      <c r="C82" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="57"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B83" s="82" t="s">
+      <c r="D82" s="65"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="46"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="C83" s="81" t="s">
+      <c r="C83" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="D83" s="76"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="57"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="B84" s="74"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="57"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="53" t="s">
+      <c r="D83" s="65"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="46"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="63"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="46"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="B85" s="74"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="57"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="B86" s="74" t="s">
+      <c r="B85" s="63"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="C86" s="75" t="s">
+      <c r="C86" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="D86" s="76"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="57"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="B87" s="74" t="s">
+      <c r="D86" s="65"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="75" t="s">
+      <c r="C87" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="D87" s="76"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="57"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="B88" s="74" t="s">
+      <c r="D87" s="65"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="C88" s="75" t="s">
+      <c r="C88" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="D88" s="76"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="57"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="B89" s="74" t="s">
+      <c r="D88" s="65"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="46"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="C89" s="75" t="s">
+      <c r="C89" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="D89" s="76"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="57"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="B90" s="74" t="s">
+      <c r="D89" s="65"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="46"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="C90" s="75" t="s">
+      <c r="C90" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="D90" s="76"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="57"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="B91" s="74" t="s">
+      <c r="D90" s="65"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="46"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="C91" s="75" t="s">
+      <c r="C91" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="D91" s="76"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="57"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="B92" s="74" t="s">
+      <c r="D91" s="65"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="46"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="C92" s="75" t="s">
+      <c r="C92" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="D92" s="76"/>
-      <c r="E92" s="77"/>
-      <c r="F92" s="57"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="B93" s="74"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="76"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="57"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="53" t="s">
+      <c r="D92" s="65"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="46"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="63"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="46"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B94" s="74"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="76"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="57"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="B95" s="74" t="s">
+      <c r="B94" s="63"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="46"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="63" t="s">
         <v>333</v>
       </c>
-      <c r="C95" s="75" t="s">
+      <c r="C95" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="D95" s="76"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="57"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="B96" s="74" t="s">
+      <c r="D95" s="65"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="46"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="C96" s="75" t="s">
+      <c r="C96" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="76"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="57"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="B97" s="74" t="s">
+      <c r="D96" s="65"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="46"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="C97" s="75" t="s">
+      <c r="C97" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="D97" s="76"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="57"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="B98" s="74" t="s">
+      <c r="D97" s="65"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="46"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="C98" s="75" t="s">
+      <c r="C98" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="76"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="57"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="B99" s="74" t="s">
+      <c r="D98" s="65"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="46"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="C99" s="75" t="s">
+      <c r="C99" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="D99" s="76"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="57"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="B100" s="74" t="s">
+      <c r="D99" s="65"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="46"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="C100" s="75" t="s">
+      <c r="C100" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="D100" s="76"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="57"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="B101" s="74" t="s">
+      <c r="D100" s="65"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="46"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="C101" s="75" t="s">
+      <c r="C101" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="D101" s="76"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="57"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="B102" s="74" t="s">
+      <c r="D101" s="65"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="46"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="C102" s="75" t="s">
+      <c r="C102" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="D102" s="76"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="57"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="B103" s="74" t="s">
+      <c r="D102" s="65"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="46"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="C103" s="75" t="s">
+      <c r="C103" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="D103" s="76"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="57"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="B104" s="74" t="s">
+      <c r="D103" s="65"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="46"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="C104" s="75" t="s">
+      <c r="C104" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="D104" s="76"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="57"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="B105" s="74" t="s">
+      <c r="D104" s="65"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="46"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="75" t="s">
+      <c r="C105" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="D105" s="76"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="57"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="B106" s="74" t="s">
+      <c r="D105" s="65"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="46"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="C106" s="75" t="s">
+      <c r="C106" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="D106" s="76"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="57"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="B107" s="74"/>
-      <c r="C107" s="75"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="57"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="53" t="s">
+      <c r="D106" s="65"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="46"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="63"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="46"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="B108" s="74" t="s">
+      <c r="B108" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="C108" s="75" t="s">
+      <c r="C108" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="D108" s="76"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="57"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="B109" s="74" t="s">
+      <c r="D108" s="65"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="46"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="C109" s="75" t="s">
+      <c r="C109" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="D109" s="76"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="57"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="B110" s="74"/>
-      <c r="C110" s="75"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="57"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="53" t="s">
+      <c r="D109" s="65"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="46"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="63"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="46"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="B111" s="74"/>
-      <c r="C111" s="75"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="57"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="B112" s="74" t="s">
+      <c r="B111" s="63"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="46"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="63" t="s">
         <v>336</v>
       </c>
-      <c r="C112" s="75" t="s">
+      <c r="C112" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="D112" s="76"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="57"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="B113" s="74" t="s">
+      <c r="D112" s="65"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="46"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="63" t="s">
         <v>337</v>
       </c>
-      <c r="C113" s="75" t="s">
+      <c r="C113" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="D113" s="76"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="57"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="B114" s="74" t="s">
+      <c r="D113" s="65"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="46"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="C114" s="75" t="s">
+      <c r="C114" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="D114" s="76"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="57"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="B115" s="74" t="s">
+      <c r="D114" s="65"/>
+      <c r="E114" s="66"/>
+      <c r="F114" s="46"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="63" t="s">
         <v>339</v>
       </c>
-      <c r="C115" s="75" t="s">
+      <c r="C115" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="D115" s="76"/>
-      <c r="E115" s="77"/>
-      <c r="F115" s="57"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="B116" s="74" t="s">
+      <c r="D115" s="65"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="46"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="63" t="s">
         <v>340</v>
       </c>
-      <c r="C116" s="75" t="s">
+      <c r="C116" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="D116" s="76"/>
-      <c r="E116" s="77"/>
-      <c r="F116" s="57"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="B117" s="74" t="s">
+      <c r="D116" s="65"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="46"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="C117" s="75" t="s">
+      <c r="C117" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="D117" s="76"/>
-      <c r="E117" s="77"/>
-      <c r="F117" s="57"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="B118" s="74" t="s">
+      <c r="D117" s="65"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="46"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="C118" s="75" t="s">
+      <c r="C118" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="D118" s="76"/>
-      <c r="E118" s="77"/>
-      <c r="F118" s="57"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="B119" s="74" t="s">
+      <c r="D118" s="65"/>
+      <c r="E118" s="66"/>
+      <c r="F118" s="46"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="C119" s="75" t="s">
+      <c r="C119" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="D119" s="76"/>
-      <c r="E119" s="77"/>
-      <c r="F119" s="57"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="B120" s="74"/>
-      <c r="C120" s="75"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="77"/>
-      <c r="F120" s="57"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="53" t="s">
+      <c r="D119" s="65"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="46"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="63"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="65"/>
+      <c r="E120" s="66"/>
+      <c r="F120" s="46"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="B121" s="74"/>
-      <c r="C121" s="75"/>
-      <c r="D121" s="76"/>
-      <c r="E121" s="77"/>
-      <c r="F121" s="57"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="B122" s="74" t="s">
+      <c r="B121" s="63"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="65"/>
+      <c r="E121" s="66"/>
+      <c r="F121" s="46"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="75" t="s">
+      <c r="C122" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="D122" s="76"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="57"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="B123" s="74" t="s">
+      <c r="D122" s="65"/>
+      <c r="E122" s="66"/>
+      <c r="F122" s="46"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="75" t="s">
+      <c r="C123" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="D123" s="76"/>
-      <c r="E123" s="77"/>
-      <c r="F123" s="57"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="B124" s="74" t="s">
+      <c r="D123" s="65"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="46"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C124" s="75" t="s">
+      <c r="C124" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="D124" s="76"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="57"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="B125" s="74" t="s">
+      <c r="D124" s="65"/>
+      <c r="E124" s="66"/>
+      <c r="F124" s="46"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="75" t="s">
+      <c r="C125" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="D125" s="76"/>
-      <c r="E125" s="77"/>
-      <c r="F125" s="57"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="B126" s="74" t="s">
+      <c r="D125" s="65"/>
+      <c r="E125" s="66"/>
+      <c r="F125" s="46"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="D126" s="65"/>
+      <c r="E126" s="66"/>
+      <c r="F126" s="46"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C127" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="D127" s="65"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="46"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="D128" s="65"/>
+      <c r="E128" s="66"/>
+      <c r="F128" s="46"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="D129" s="65"/>
+      <c r="E129" s="66"/>
+      <c r="F129" s="46"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="63" t="s">
         <v>344</v>
       </c>
-      <c r="C126" s="75" t="s">
-        <v>282</v>
-      </c>
-      <c r="D126" s="76"/>
-      <c r="E126" s="77"/>
-      <c r="F126" s="57"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="B127" s="74" t="s">
-        <v>270</v>
-      </c>
-      <c r="C127" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="D127" s="76"/>
-      <c r="E127" s="77"/>
-      <c r="F127" s="57"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="B128" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="D128" s="76"/>
-      <c r="E128" s="77"/>
-      <c r="F128" s="57"/>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="B129" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="75" t="s">
-        <v>285</v>
-      </c>
-      <c r="D129" s="76"/>
-      <c r="E129" s="77"/>
-      <c r="F129" s="57"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="B130" s="74" t="s">
+      <c r="C130" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="D130" s="65"/>
+      <c r="E130" s="66"/>
+      <c r="F130" s="46"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="C130" s="75" t="s">
-        <v>287</v>
-      </c>
-      <c r="D130" s="76"/>
-      <c r="E130" s="77"/>
-      <c r="F130" s="57"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="B131" s="74" t="s">
+      <c r="C131" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="D131" s="65"/>
+      <c r="E131" s="66"/>
+      <c r="F131" s="46"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="63"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="65"/>
+      <c r="E132" s="66"/>
+      <c r="F132" s="46"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="63"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="65"/>
+      <c r="E133" s="66"/>
+      <c r="F133" s="46"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" s="63"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="65"/>
+      <c r="E134" s="66"/>
+      <c r="F134" s="46"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="D135" s="65"/>
+      <c r="E135" s="66"/>
+      <c r="F135" s="46"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="C131" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="D131" s="76"/>
-      <c r="E131" s="77"/>
-      <c r="F131" s="57"/>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="B132" s="74"/>
-      <c r="C132" s="75"/>
-      <c r="D132" s="76"/>
-      <c r="E132" s="77"/>
-      <c r="F132" s="57"/>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="B133" s="74"/>
-      <c r="C133" s="75"/>
-      <c r="D133" s="76"/>
-      <c r="E133" s="77"/>
-      <c r="F133" s="57"/>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="B134" s="74"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="76"/>
-      <c r="E134" s="77"/>
-      <c r="F134" s="57"/>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="B135" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="D135" s="76"/>
-      <c r="E135" s="77"/>
-      <c r="F135" s="57"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="B136" s="74" t="s">
+      <c r="C136" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="D136" s="65"/>
+      <c r="E136" s="66"/>
+      <c r="F136" s="46"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="D137" s="65"/>
+      <c r="E137" s="66"/>
+      <c r="F137" s="46"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="63" t="s">
         <v>347</v>
       </c>
-      <c r="C136" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="D136" s="76"/>
-      <c r="E136" s="77"/>
-      <c r="F136" s="57"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="B137" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C137" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="D137" s="76"/>
-      <c r="E137" s="77"/>
-      <c r="F137" s="57"/>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="B138" s="74" t="s">
+      <c r="C138" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="D138" s="65"/>
+      <c r="E138" s="66"/>
+      <c r="F138" s="46"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="C138" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="D138" s="76"/>
-      <c r="E138" s="77"/>
-      <c r="F138" s="57"/>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="B139" s="74" t="s">
+      <c r="C139" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="D139" s="65"/>
+      <c r="E139" s="66"/>
+      <c r="F139" s="46"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="C139" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="D139" s="76"/>
-      <c r="E139" s="77"/>
-      <c r="F139" s="57"/>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="B140" s="74" t="s">
+      <c r="C140" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="D140" s="65"/>
+      <c r="E140" s="66"/>
+      <c r="F140" s="46"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="63"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="66"/>
+      <c r="F141" s="46"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="B142" s="63"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="66"/>
+      <c r="F142" s="46"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="63" t="s">
         <v>350</v>
       </c>
-      <c r="C140" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="D140" s="76"/>
-      <c r="E140" s="77"/>
-      <c r="F140" s="57"/>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="B141" s="74"/>
-      <c r="C141" s="75"/>
-      <c r="D141" s="76"/>
-      <c r="E141" s="77"/>
-      <c r="F141" s="57"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="B142" s="74"/>
-      <c r="C142" s="75"/>
-      <c r="D142" s="76"/>
-      <c r="E142" s="77"/>
-      <c r="F142" s="57"/>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="B143" s="74" t="s">
+      <c r="C143" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="D143" s="65"/>
+      <c r="E143" s="66"/>
+      <c r="F143" s="46"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="63" t="s">
         <v>351</v>
       </c>
-      <c r="C143" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="D143" s="76"/>
-      <c r="E143" s="77"/>
-      <c r="F143" s="57"/>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="B144" s="74" t="s">
+      <c r="C144" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D144" s="65"/>
+      <c r="E144" s="66"/>
+      <c r="F144" s="46"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="C145" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="D145" s="65"/>
+      <c r="E145" s="66"/>
+      <c r="F145" s="46"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="C144" s="75" t="s">
-        <v>302</v>
-      </c>
-      <c r="D144" s="76"/>
-      <c r="E144" s="77"/>
-      <c r="F144" s="57"/>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="B145" s="74" t="s">
-        <v>303</v>
-      </c>
-      <c r="C145" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="D145" s="76"/>
-      <c r="E145" s="77"/>
-      <c r="F145" s="57"/>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="B146" s="74" t="s">
+      <c r="C146" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="D146" s="65"/>
+      <c r="E146" s="66"/>
+      <c r="F146" s="46"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="C146" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="D146" s="76"/>
-      <c r="E146" s="77"/>
-      <c r="F146" s="57"/>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="B147" s="74" t="s">
+      <c r="C147" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="D147" s="65"/>
+      <c r="E147" s="66"/>
+      <c r="F147" s="46"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="C147" s="75" t="s">
-        <v>308</v>
-      </c>
-      <c r="D147" s="76"/>
-      <c r="E147" s="77"/>
-      <c r="F147" s="57"/>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="B148" s="74" t="s">
+      <c r="C148" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="D148" s="65"/>
+      <c r="E148" s="66"/>
+      <c r="F148" s="46"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="B149" s="63"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="65"/>
+      <c r="E149" s="66"/>
+      <c r="F149" s="46"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="C148" s="75" t="s">
-        <v>310</v>
-      </c>
-      <c r="D148" s="76"/>
-      <c r="E148" s="77"/>
-      <c r="F148" s="57"/>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="B149" s="74"/>
-      <c r="C149" s="75"/>
-      <c r="D149" s="76"/>
-      <c r="E149" s="77"/>
-      <c r="F149" s="57"/>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="B150" s="74" t="s">
-        <v>356</v>
-      </c>
-      <c r="C150" s="75" t="s">
+      <c r="C150" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="D150" s="76"/>
-      <c r="E150" s="77"/>
-      <c r="F150" s="57"/>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="B151" s="74" t="s">
+      <c r="D150" s="65"/>
+      <c r="E150" s="66"/>
+      <c r="F150" s="46"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="C151" s="75" t="s">
+      <c r="C151" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="D151" s="76"/>
-      <c r="E151" s="77"/>
-      <c r="F151" s="57"/>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="B152" s="74" t="s">
+      <c r="D151" s="65"/>
+      <c r="E151" s="66"/>
+      <c r="F151" s="46"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="C152" s="75" t="s">
+      <c r="C152" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="D152" s="76"/>
-      <c r="E152" s="77"/>
-      <c r="F152" s="57"/>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="B153" s="74" t="s">
+      <c r="D152" s="65"/>
+      <c r="E152" s="66"/>
+      <c r="F152" s="46"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="C153" s="75" t="s">
+      <c r="C153" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="D153" s="76"/>
-      <c r="E153" s="77"/>
-      <c r="F153" s="57"/>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="B154" s="74" t="s">
+      <c r="D153" s="65"/>
+      <c r="E153" s="66"/>
+      <c r="F153" s="46"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="C154" s="75" t="s">
+      <c r="C154" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="D154" s="76"/>
-      <c r="E154" s="77"/>
-      <c r="F154" s="57"/>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="B155" s="74" t="s">
+      <c r="D154" s="65"/>
+      <c r="E154" s="66"/>
+      <c r="F154" s="46"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="C155" s="75" t="s">
+      <c r="C155" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="D155" s="76"/>
-      <c r="E155" s="77"/>
-      <c r="F155" s="57"/>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="B156" s="74"/>
-      <c r="C156" s="75"/>
-      <c r="D156" s="76"/>
-      <c r="E156" s="77"/>
-      <c r="F156" s="57"/>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="B157" s="74"/>
-      <c r="C157" s="75"/>
-      <c r="D157" s="76"/>
-      <c r="E157" s="77"/>
-      <c r="F157" s="57"/>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="B158" s="74"/>
-      <c r="C158" s="75"/>
-      <c r="D158" s="76"/>
-      <c r="E158" s="77"/>
-      <c r="F158" s="57"/>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="B159" s="74"/>
-      <c r="C159" s="75"/>
-      <c r="D159" s="76"/>
-      <c r="E159" s="77"/>
-      <c r="F159" s="57"/>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="B160" s="74"/>
-      <c r="C160" s="75"/>
-      <c r="D160" s="76"/>
-      <c r="E160" s="77"/>
-      <c r="F160" s="57"/>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="110" t="s">
+      <c r="D155" s="65"/>
+      <c r="E155" s="66"/>
+      <c r="F155" s="46"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="63"/>
+      <c r="C156" s="64"/>
+      <c r="D156" s="65"/>
+      <c r="E156" s="66"/>
+      <c r="F156" s="46"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="63"/>
+      <c r="C157" s="64"/>
+      <c r="D157" s="65"/>
+      <c r="E157" s="66"/>
+      <c r="F157" s="46"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="63"/>
+      <c r="C158" s="64"/>
+      <c r="D158" s="65"/>
+      <c r="E158" s="66"/>
+      <c r="F158" s="46"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="63"/>
+      <c r="C159" s="64"/>
+      <c r="D159" s="65"/>
+      <c r="E159" s="66"/>
+      <c r="F159" s="46"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="63"/>
+      <c r="C160" s="64"/>
+      <c r="D160" s="65"/>
+      <c r="E160" s="66"/>
+      <c r="F160" s="46"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B162" s="34" t="s">
+      <c r="B162" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C162" s="35" t="s">
+      <c r="C162" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D162" s="36" t="s">
+      <c r="D162" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="36" t="s">
+      <c r="E162" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F162" s="37" t="s">
+      <c r="F162" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="111"/>
-      <c r="B163" s="45" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="118"/>
+      <c r="B163" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="C163" s="55" t="s">
+      <c r="C163" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="D163" s="83"/>
-      <c r="E163" s="83" t="s">
+      <c r="D163" s="72"/>
+      <c r="E163" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="F163" s="57"/>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="111"/>
-      <c r="B164" s="54" t="s">
+      <c r="F163" s="46"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="118"/>
+      <c r="B164" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="C164" s="55" t="s">
+      <c r="C164" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="D164" s="83"/>
-      <c r="E164" s="83" t="s">
+      <c r="D164" s="72"/>
+      <c r="E164" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="F164" s="57"/>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="111"/>
-      <c r="B165" s="45" t="s">
+      <c r="F164" s="46"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="118"/>
+      <c r="B165" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="C165" s="55" t="s">
+      <c r="C165" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="D165" s="83"/>
-      <c r="E165" s="83" t="s">
+      <c r="D165" s="72"/>
+      <c r="E165" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="F165" s="57"/>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="111"/>
-      <c r="B166" s="45" t="s">
+      <c r="F165" s="46"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="118"/>
+      <c r="B166" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="C166" s="55" t="s">
+      <c r="C166" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="D166" s="83"/>
-      <c r="E166" s="83" t="s">
+      <c r="D166" s="72"/>
+      <c r="E166" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="F166" s="57"/>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="84"/>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="84"/>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="84"/>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="C171" s="85" t="s">
+      <c r="F166" s="46"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="73"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="73"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="73"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C171" s="74" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
-      <c r="D172" s="86" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D172" s="75" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="D173" s="86" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D173" s="75" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="D174" s="86" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D174" s="75" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
-      <c r="D175" s="87" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D175" s="76" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="D176" s="47" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D176" s="36" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="177" spans="4:5">
-      <c r="D177" s="88"/>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D177" s="77"/>
       <c r="E177" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="178" spans="4:5">
-      <c r="D178" s="89"/>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D178" s="78"/>
       <c r="E178" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="179" spans="4:5">
-      <c r="D179" s="95"/>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D179" s="84"/>
       <c r="E179" t="s">
         <v>268</v>
       </c>

--- a/my1stProject/apb_subsystem/apb_subsustem_design_arch.xlsx
+++ b/my1stProject/apb_subsystem/apb_subsustem_design_arch.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anupam\git\hello-world\my1stProject\apb_subsystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anupam\Documents\SoCgit\hello-world\my1stProject\apb_subsystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="443">
   <si>
     <t>Target</t>
   </si>
@@ -1606,12 +1606,15 @@
   <si>
     <t>find</t>
   </si>
+  <si>
+    <t>..\apbbus\apbbus.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1751,6 +1754,14 @@
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2184,10 +2195,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2473,18 +2485,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2878,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,7 +2975,9 @@
       <c r="G5" s="85"/>
       <c r="H5" s="85"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="J5" s="119" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="85"/>
@@ -3751,8 +3762,11 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3760,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3798,8 +3812,8 @@
       <c r="D3" t="s">
         <v>441</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>371</v>
+      <c r="E3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4079,12 +4093,12 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:XFD22">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4098,7 +4112,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/my1stProject/apb_subsystem/apb_subsustem_design_arch.xlsx
+++ b/my1stProject/apb_subsystem/apb_subsustem_design_arch.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="447">
   <si>
     <t>Target</t>
   </si>
@@ -1608,6 +1608,18 @@
   </si>
   <si>
     <t>..\apbbus\apbbus.xlsx</t>
+  </si>
+  <si>
+    <t>..\apbmst\apbmst.xlsx</t>
+  </si>
+  <si>
+    <t>..\irqctrl\irqctrl.xlsx</t>
+  </si>
+  <si>
+    <t>..\timers\timers.xlsx</t>
+  </si>
+  <si>
+    <t>..\uartcrosser\uartcrosser.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +2211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2437,6 +2449,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2485,7 +2503,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2797,25 +2815,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="107" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="109" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
@@ -2887,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,20 +2925,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="107" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="109" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2975,7 +2993,7 @@
       <c r="G5" s="85"/>
       <c r="H5" s="85"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="103" t="s">
         <v>442</v>
       </c>
     </row>
@@ -3262,7 +3280,9 @@
       <c r="G22" s="85"/>
       <c r="H22" s="85"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="J22" s="103" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="91"/>
@@ -3300,7 +3320,9 @@
       <c r="G24" s="99"/>
       <c r="H24" s="102"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="12"/>
+      <c r="J24" s="104" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="86" t="s">
@@ -3322,7 +3344,9 @@
       <c r="G25" s="99"/>
       <c r="H25" s="102"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="12"/>
+      <c r="J25" s="104" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="86"/>
@@ -3708,6 +3732,9 @@
       <c r="G48" s="100"/>
       <c r="H48" s="100"/>
       <c r="I48" s="14"/>
+      <c r="J48" s="121" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
@@ -3764,9 +3791,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="J22" r:id="rId2"/>
+    <hyperlink ref="J24" r:id="rId3"/>
+    <hyperlink ref="J25" r:id="rId4"/>
+    <hyperlink ref="J48" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3793,20 +3824,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="107" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="109" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
@@ -4126,10 +4157,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="106"/>
       <c r="C1" s="79" t="s">
         <v>277</v>
       </c>
@@ -4140,8 +4171,8 @@
       <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -4352,8 +4383,8 @@
       <c r="C5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="36" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4396,8 @@
       <c r="C6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="113"/>
       <c r="F6" s="36" t="s">
         <v>23</v>
       </c>
@@ -4378,8 +4409,8 @@
       <c r="C7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="113"/>
       <c r="F7" s="36" t="s">
         <v>26</v>
       </c>
@@ -4392,8 +4423,8 @@
       <c r="C8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="36" t="s">
         <v>29</v>
       </c>
@@ -4406,8 +4437,8 @@
       <c r="C9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="113"/>
       <c r="F9" s="36" t="s">
         <v>31</v>
       </c>
@@ -4420,8 +4451,8 @@
       <c r="C10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="36" t="s">
         <v>34</v>
       </c>
@@ -4434,8 +4465,8 @@
       <c r="C11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="41" t="s">
         <v>37</v>
       </c>
@@ -4448,8 +4479,8 @@
       <c r="C12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="41" t="s">
         <v>40</v>
       </c>
@@ -4461,8 +4492,8 @@
       <c r="C13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="36" t="s">
         <v>42</v>
       </c>
@@ -4474,8 +4505,8 @@
       <c r="C14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="36" t="s">
         <v>45</v>
       </c>
@@ -4487,8 +4518,8 @@
       <c r="C15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="36" t="s">
         <v>48</v>
       </c>
@@ -4500,8 +4531,8 @@
       <c r="C16" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="46" t="s">
         <v>51</v>
       </c>
@@ -4514,8 +4545,8 @@
       <c r="C17" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="113"/>
       <c r="F17" s="46" t="s">
         <v>54</v>
       </c>
@@ -4528,8 +4559,8 @@
       <c r="C18" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="109"/>
-      <c r="E18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="113"/>
       <c r="F18" s="46" t="s">
         <v>57</v>
       </c>
@@ -4542,8 +4573,8 @@
       <c r="C19" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="113"/>
       <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4554,8 +4585,8 @@
       <c r="C20" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="109"/>
-      <c r="E20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4565,14 +4596,14 @@
       <c r="C21" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="113"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="49"/>
       <c r="C22" s="44"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="113"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="43" t="s">
@@ -4581,8 +4612,8 @@
       <c r="C23" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="109"/>
-      <c r="E23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="46" t="s">
         <v>65</v>
       </c>
@@ -4595,8 +4626,8 @@
       <c r="C24" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="46" t="s">
         <v>68</v>
       </c>
@@ -4608,8 +4639,8 @@
       <c r="C25" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="109"/>
-      <c r="E25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="113"/>
       <c r="F25" s="46" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4653,8 @@
       <c r="C26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="111"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="46" t="s">
         <v>74</v>
       </c>
@@ -4638,7 +4669,7 @@
       <c r="D27" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="111"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="46" t="s">
         <v>77</v>
       </c>
@@ -4651,8 +4682,8 @@
       <c r="C28" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="111"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4663,8 +4694,8 @@
       <c r="C29" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="111"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="113"/>
       <c r="F29" s="46" t="s">
         <v>82</v>
       </c>
@@ -4677,8 +4708,8 @@
       <c r="C30" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="113"/>
-      <c r="E30" s="111"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="113"/>
       <c r="F30" s="46"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4689,8 +4720,8 @@
       <c r="C31" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="113"/>
-      <c r="E31" s="111"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="113"/>
       <c r="F31" s="46" t="s">
         <v>86</v>
       </c>
@@ -4703,8 +4734,8 @@
       <c r="C32" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="113"/>
-      <c r="E32" s="111"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="113"/>
       <c r="F32" s="46"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4715,8 +4746,8 @@
       <c r="C33" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="113"/>
-      <c r="E33" s="111"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="113"/>
       <c r="F33" s="46"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4727,8 +4758,8 @@
       <c r="C34" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="113"/>
-      <c r="E34" s="111"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="113"/>
       <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4739,8 +4770,8 @@
       <c r="C35" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="113"/>
-      <c r="E35" s="111"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="113"/>
       <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4750,15 +4781,15 @@
       <c r="C36" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="111"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="113"/>
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="51"/>
       <c r="C37" s="44"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="111"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="113"/>
       <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4768,8 +4799,8 @@
       <c r="C38" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="113"/>
-      <c r="E38" s="111"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="113"/>
       <c r="F38" s="46" t="s">
         <v>98</v>
       </c>
@@ -4781,8 +4812,8 @@
       <c r="C39" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="114"/>
-      <c r="E39" s="111"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="113"/>
       <c r="F39" s="46" t="s">
         <v>100</v>
       </c>
@@ -4798,7 +4829,7 @@
       <c r="D40" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="111"/>
+      <c r="E40" s="113"/>
       <c r="F40" s="46" t="s">
         <v>103</v>
       </c>
@@ -4813,7 +4844,7 @@
       <c r="D41" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="111"/>
+      <c r="E41" s="113"/>
       <c r="F41" s="46" t="s">
         <v>105</v>
       </c>
@@ -4829,7 +4860,7 @@
       <c r="D42" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="111"/>
+      <c r="E42" s="113"/>
       <c r="F42" s="46" t="s">
         <v>108</v>
       </c>
@@ -4841,8 +4872,8 @@
       <c r="C43" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="115"/>
-      <c r="E43" s="111"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="113"/>
       <c r="F43" s="46" t="s">
         <v>110</v>
       </c>
@@ -4854,8 +4885,8 @@
       <c r="C44" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="116"/>
-      <c r="E44" s="111"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="113"/>
       <c r="F44" s="46" t="s">
         <v>113</v>
       </c>
@@ -4867,15 +4898,15 @@
       <c r="C45" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="116"/>
-      <c r="E45" s="111"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="113"/>
       <c r="F45" s="46"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="43"/>
       <c r="C46" s="55"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="111"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="113"/>
       <c r="F46" s="46"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4885,8 +4916,8 @@
       <c r="C47" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="116"/>
-      <c r="E47" s="111"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="113"/>
       <c r="F47" s="46" t="s">
         <v>118</v>
       </c>
@@ -4898,14 +4929,14 @@
       <c r="C48" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="116"/>
-      <c r="E48" s="111"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="113"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="56"/>
       <c r="C49" s="55"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="111"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="113"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="43" t="s">
@@ -4914,8 +4945,8 @@
       <c r="C50" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="116"/>
-      <c r="E50" s="111"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="113"/>
       <c r="F50" s="46" t="s">
         <v>123</v>
       </c>
@@ -4927,8 +4958,8 @@
       <c r="C51" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="116"/>
-      <c r="E51" s="111"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="113"/>
       <c r="F51" s="46" t="s">
         <v>126</v>
       </c>
@@ -4940,8 +4971,8 @@
       <c r="C52" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="116"/>
-      <c r="E52" s="111"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="113"/>
       <c r="F52" s="46" t="s">
         <v>129</v>
       </c>
@@ -4953,8 +4984,8 @@
       <c r="C53" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="116"/>
-      <c r="E53" s="111"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="113"/>
       <c r="F53" s="46" t="s">
         <v>132</v>
       </c>
@@ -4966,8 +4997,8 @@
       <c r="C54" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="116"/>
-      <c r="E54" s="111"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="113"/>
       <c r="F54" s="46" t="s">
         <v>135</v>
       </c>
@@ -4979,8 +5010,8 @@
       <c r="C55" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="116"/>
-      <c r="E55" s="111"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="113"/>
       <c r="F55" s="46" t="s">
         <v>138</v>
       </c>
@@ -4992,8 +5023,8 @@
       <c r="C56" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="116"/>
-      <c r="E56" s="111"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="113"/>
       <c r="F56" s="46" t="s">
         <v>141</v>
       </c>
@@ -5001,8 +5032,8 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="43"/>
       <c r="C57" s="55"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="111"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="113"/>
       <c r="F57" s="46"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -5013,8 +5044,8 @@
       <c r="C58" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="116"/>
-      <c r="E58" s="111"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="113"/>
       <c r="F58" s="46" t="s">
         <v>143</v>
       </c>
@@ -5027,8 +5058,8 @@
       <c r="C59" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D59" s="116"/>
-      <c r="E59" s="111"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="113"/>
       <c r="F59" s="46" t="s">
         <v>146</v>
       </c>
@@ -5041,8 +5072,8 @@
       <c r="C60" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="116"/>
-      <c r="E60" s="111"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="113"/>
       <c r="F60" s="46" t="s">
         <v>149</v>
       </c>
@@ -5055,8 +5086,8 @@
       <c r="C61" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="116"/>
-      <c r="E61" s="111"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="113"/>
       <c r="F61" s="46" t="s">
         <v>152</v>
       </c>
@@ -5069,8 +5100,8 @@
       <c r="C62" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="116"/>
-      <c r="E62" s="111"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="113"/>
       <c r="F62" s="46" t="s">
         <v>152</v>
       </c>
@@ -5083,8 +5114,8 @@
       <c r="C63" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="116"/>
-      <c r="E63" s="111"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="113"/>
       <c r="F63" s="46" t="s">
         <v>157</v>
       </c>
@@ -5097,8 +5128,8 @@
       <c r="C64" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="D64" s="116"/>
-      <c r="E64" s="111"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="113"/>
       <c r="F64" s="46" t="s">
         <v>159</v>
       </c>
@@ -5111,8 +5142,8 @@
       <c r="C65" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="116"/>
-      <c r="E65" s="111"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="113"/>
       <c r="F65" s="46" t="s">
         <v>162</v>
       </c>
@@ -5125,8 +5156,8 @@
       <c r="C66" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="D66" s="116"/>
-      <c r="E66" s="111"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="113"/>
       <c r="F66" s="46" t="s">
         <v>165</v>
       </c>
@@ -5139,8 +5170,8 @@
       <c r="C67" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="D67" s="116"/>
-      <c r="E67" s="111"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="113"/>
       <c r="F67" s="46" t="s">
         <v>168</v>
       </c>
@@ -5152,8 +5183,8 @@
       <c r="C68" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="116"/>
-      <c r="E68" s="111"/>
+      <c r="D68" s="118"/>
+      <c r="E68" s="113"/>
       <c r="F68" s="46" t="s">
         <v>171</v>
       </c>
@@ -6109,7 +6140,7 @@
       <c r="F160" s="46"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="117" t="s">
+      <c r="A162" s="119" t="s">
         <v>9</v>
       </c>
       <c r="B162" s="23" t="s">
@@ -6129,7 +6160,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="118"/>
+      <c r="A163" s="120"/>
       <c r="B163" s="34" t="s">
         <v>251</v>
       </c>
@@ -6143,7 +6174,7 @@
       <c r="F163" s="46"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="118"/>
+      <c r="A164" s="120"/>
       <c r="B164" s="43" t="s">
         <v>254</v>
       </c>
@@ -6157,7 +6188,7 @@
       <c r="F164" s="46"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="118"/>
+      <c r="A165" s="120"/>
       <c r="B165" s="34" t="s">
         <v>256</v>
       </c>
@@ -6171,7 +6202,7 @@
       <c r="F165" s="46"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="118"/>
+      <c r="A166" s="120"/>
       <c r="B166" s="34" t="s">
         <v>258</v>
       </c>

--- a/my1stProject/apb_subsystem/apb_subsustem_design_arch.xlsx
+++ b/my1stProject/apb_subsystem/apb_subsustem_design_arch.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="447">
   <si>
     <t>Target</t>
   </si>
@@ -1379,9 +1379,6 @@
     <t>uart</t>
   </si>
   <si>
-    <t>i_uarts</t>
-  </si>
-  <si>
     <t>i_uart_1</t>
   </si>
   <si>
@@ -1620,6 +1617,9 @@
   </si>
   <si>
     <t>..\uartcrosser\uartcrosser.xlsx</t>
+  </si>
+  <si>
+    <t>..\uart\uart.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2455,6 +2455,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2502,9 +2505,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2815,25 +2815,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="109" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="110" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
@@ -2905,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2925,20 +2925,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="109" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="110" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2975,7 +2975,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="85" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B5" s="85" t="s">
         <v>357</v>
@@ -2984,7 +2984,7 @@
         <v>358</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E5" s="85">
         <v>1.3</v>
@@ -2994,7 +2994,7 @@
       <c r="H5" s="85"/>
       <c r="I5" s="16"/>
       <c r="J5" s="103" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3005,7 +3005,7 @@
       <c r="E6" s="85"/>
       <c r="F6" s="16"/>
       <c r="G6" s="85" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H6" s="85">
         <v>4096</v>
@@ -3021,7 +3021,7 @@
       <c r="E7" s="85"/>
       <c r="F7" s="16"/>
       <c r="G7" s="85" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H7" s="85">
         <v>4096</v>
@@ -3037,7 +3037,7 @@
       <c r="E8" s="85"/>
       <c r="F8" s="16"/>
       <c r="G8" s="85" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H8" s="85">
         <v>4096</v>
@@ -3053,7 +3053,7 @@
       <c r="E9" s="85"/>
       <c r="F9" s="16"/>
       <c r="G9" s="85" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H9" s="85">
         <v>4096</v>
@@ -3069,7 +3069,7 @@
       <c r="E10" s="85"/>
       <c r="F10" s="16"/>
       <c r="G10" s="85" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H10" s="85">
         <v>4096</v>
@@ -3085,7 +3085,7 @@
       <c r="E11" s="85"/>
       <c r="F11" s="16"/>
       <c r="G11" s="85" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H11" s="85">
         <v>4096</v>
@@ -3101,7 +3101,7 @@
       <c r="E12" s="85"/>
       <c r="F12" s="16"/>
       <c r="G12" s="85" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H12" s="85">
         <v>4096</v>
@@ -3117,7 +3117,7 @@
       <c r="E13" s="85"/>
       <c r="F13" s="16"/>
       <c r="G13" s="85" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H13" s="85">
         <v>4096</v>
@@ -3133,7 +3133,7 @@
       <c r="E14" s="85"/>
       <c r="F14" s="16"/>
       <c r="G14" s="85" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H14" s="85" t="s">
         <v>8</v>
@@ -3149,7 +3149,7 @@
       <c r="E15" s="85"/>
       <c r="F15" s="16"/>
       <c r="G15" s="85" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H15" s="85" t="str">
         <f>"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(H14,LEN(H14)-2))+HEX2DEC(1000))</f>
@@ -3166,7 +3166,7 @@
       <c r="E16" s="85"/>
       <c r="F16" s="16"/>
       <c r="G16" s="85" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H16" s="85" t="str">
         <f t="shared" ref="H16:H21" si="0">"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(H15,LEN(H15)-2))+HEX2DEC(1000))</f>
@@ -3183,7 +3183,7 @@
       <c r="E17" s="85"/>
       <c r="F17" s="16"/>
       <c r="G17" s="85" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H17" s="85" t="str">
         <f t="shared" si="0"/>
@@ -3200,7 +3200,7 @@
       <c r="E18" s="85"/>
       <c r="F18" s="16"/>
       <c r="G18" s="85" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H18" s="85" t="str">
         <f t="shared" si="0"/>
@@ -3217,7 +3217,7 @@
       <c r="E19" s="85"/>
       <c r="F19" s="16"/>
       <c r="G19" s="85" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H19" s="85" t="str">
         <f t="shared" si="0"/>
@@ -3234,7 +3234,7 @@
       <c r="E20" s="85"/>
       <c r="F20" s="16"/>
       <c r="G20" s="85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H20" s="85" t="str">
         <f t="shared" si="0"/>
@@ -3251,7 +3251,7 @@
       <c r="E21" s="85"/>
       <c r="F21" s="16"/>
       <c r="G21" s="85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H21" s="85" t="str">
         <f t="shared" si="0"/>
@@ -3281,7 +3281,7 @@
       <c r="H22" s="85"/>
       <c r="I22" s="16"/>
       <c r="J22" s="103" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3292,10 +3292,10 @@
       <c r="E23" s="92"/>
       <c r="F23" s="94"/>
       <c r="G23" s="91" t="s">
+        <v>423</v>
+      </c>
+      <c r="H23" s="96" t="s">
         <v>424</v>
-      </c>
-      <c r="H23" s="96" t="s">
-        <v>425</v>
       </c>
       <c r="I23" s="95"/>
       <c r="J23" s="95"/>
@@ -3321,7 +3321,7 @@
       <c r="H24" s="102"/>
       <c r="I24" s="13"/>
       <c r="J24" s="104" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3345,7 +3345,7 @@
       <c r="H25" s="102"/>
       <c r="I25" s="13"/>
       <c r="J25" s="104" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3356,7 +3356,7 @@
       <c r="E26" s="90"/>
       <c r="F26" s="11"/>
       <c r="G26" s="99" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H26" s="102">
         <v>22</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="86" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B27" s="87" t="s">
         <v>357</v>
@@ -3384,7 +3384,9 @@
       <c r="G27" s="99"/>
       <c r="H27" s="22"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="12"/>
+      <c r="J27" s="104" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="86"/>
@@ -3394,7 +3396,7 @@
       <c r="E28" s="89"/>
       <c r="F28" s="11"/>
       <c r="G28" s="99" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H28" s="22">
         <v>8</v>
@@ -3410,7 +3412,7 @@
       <c r="E29" s="89"/>
       <c r="F29" s="11"/>
       <c r="G29" s="99" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H29" s="22">
         <v>4</v>
@@ -3426,7 +3428,7 @@
       <c r="E30" s="89"/>
       <c r="F30" s="11"/>
       <c r="G30" s="99" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H30" s="22">
         <v>4</v>
@@ -3442,7 +3444,7 @@
       <c r="E31" s="89"/>
       <c r="F31" s="11"/>
       <c r="G31" s="99" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H31" s="22">
         <v>1</v>
@@ -3458,7 +3460,7 @@
       <c r="E32" s="89"/>
       <c r="F32" s="11"/>
       <c r="G32" s="99" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H32" s="22" t="b">
         <v>0</v>
@@ -3474,7 +3476,7 @@
       <c r="E33" s="89"/>
       <c r="F33" s="11"/>
       <c r="G33" s="99" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H33" s="22">
         <v>8</v>
@@ -3490,7 +3492,7 @@
       <c r="E34" s="89"/>
       <c r="F34" s="11"/>
       <c r="G34" s="99" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H34" s="22">
         <v>4</v>
@@ -3506,7 +3508,7 @@
       <c r="E35" s="89"/>
       <c r="F35" s="11"/>
       <c r="G35" s="99" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H35" s="22">
         <v>4</v>
@@ -3522,7 +3524,7 @@
       <c r="E36" s="89"/>
       <c r="F36" s="11"/>
       <c r="G36" s="99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H36" s="22">
         <v>1</v>
@@ -3532,7 +3534,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="86" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B37" s="87" t="s">
         <v>357</v>
@@ -3550,7 +3552,9 @@
       <c r="G37" s="99"/>
       <c r="H37" s="22"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="12"/>
+      <c r="J37" s="104" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="86"/>
@@ -3560,7 +3564,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="11"/>
       <c r="G38" s="99" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H38" s="22">
         <v>8</v>
@@ -3576,7 +3580,7 @@
       <c r="E39" s="89"/>
       <c r="F39" s="11"/>
       <c r="G39" s="99" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H39" s="22">
         <v>4</v>
@@ -3592,7 +3596,7 @@
       <c r="E40" s="89"/>
       <c r="F40" s="11"/>
       <c r="G40" s="99" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H40" s="22">
         <v>4</v>
@@ -3608,7 +3612,7 @@
       <c r="E41" s="89"/>
       <c r="F41" s="11"/>
       <c r="G41" s="99" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H41" s="22">
         <v>1</v>
@@ -3624,7 +3628,7 @@
       <c r="E42" s="89"/>
       <c r="F42" s="11"/>
       <c r="G42" s="99" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H42" s="22" t="b">
         <v>0</v>
@@ -3640,10 +3644,10 @@
       <c r="E43" s="89"/>
       <c r="F43" s="11"/>
       <c r="G43" s="99" t="s">
+        <v>435</v>
+      </c>
+      <c r="H43" s="22" t="s">
         <v>436</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>437</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="12"/>
@@ -3656,7 +3660,7 @@
       <c r="E44" s="89"/>
       <c r="F44" s="11"/>
       <c r="G44" s="99" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H44" s="22">
         <v>8</v>
@@ -3672,7 +3676,7 @@
       <c r="E45" s="89"/>
       <c r="F45" s="11"/>
       <c r="G45" s="99" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H45" s="22">
         <v>4</v>
@@ -3688,7 +3692,7 @@
       <c r="E46" s="89"/>
       <c r="F46" s="11"/>
       <c r="G46" s="99" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H46" s="22">
         <v>4</v>
@@ -3704,7 +3708,7 @@
       <c r="E47" s="89"/>
       <c r="F47" s="11"/>
       <c r="G47" s="99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H47" s="22">
         <v>1</v>
@@ -3714,7 +3718,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="90" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B48" s="87" t="s">
         <v>357</v>
@@ -3723,7 +3727,7 @@
         <v>358</v>
       </c>
       <c r="D48" s="90" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E48" s="87">
         <v>1.2</v>
@@ -3732,8 +3736,8 @@
       <c r="G48" s="100"/>
       <c r="H48" s="100"/>
       <c r="I48" s="14"/>
-      <c r="J48" s="121" t="s">
-        <v>446</v>
+      <c r="J48" s="105" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3744,10 +3748,10 @@
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="100" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H49" s="100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I49" s="14"/>
     </row>
@@ -3795,9 +3799,11 @@
     <hyperlink ref="J24" r:id="rId3"/>
     <hyperlink ref="J25" r:id="rId4"/>
     <hyperlink ref="J48" r:id="rId5"/>
+    <hyperlink ref="J37" r:id="rId6"/>
+    <hyperlink ref="J27" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -3824,24 +3830,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="109" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E3" t="s">
         <v>361</v>
@@ -3873,13 +3879,13 @@
         <v>359</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -3889,13 +3895,13 @@
         <v>361</v>
       </c>
       <c r="B7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" t="s">
         <v>370</v>
       </c>
-      <c r="C7" t="s">
-        <v>371</v>
-      </c>
       <c r="D7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3903,41 +3909,41 @@
         <v>363</v>
       </c>
       <c r="B8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" t="s">
         <v>370</v>
       </c>
-      <c r="C8" t="s">
-        <v>371</v>
-      </c>
       <c r="D8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" t="s">
         <v>375</v>
-      </c>
-      <c r="B9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" t="s">
         <v>370</v>
       </c>
-      <c r="C10" t="s">
-        <v>371</v>
-      </c>
       <c r="D10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,13 +3951,13 @@
         <v>361</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
         <v>363</v>
       </c>
       <c r="D11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,13 +3965,13 @@
         <v>361</v>
       </c>
       <c r="B12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C12" t="s">
         <v>363</v>
       </c>
       <c r="D12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3973,13 +3979,13 @@
         <v>361</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3987,125 +3993,125 @@
         <v>361</v>
       </c>
       <c r="B14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" t="s">
         <v>383</v>
-      </c>
-      <c r="C14" t="s">
-        <v>367</v>
-      </c>
-      <c r="D14" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" t="s">
         <v>385</v>
-      </c>
-      <c r="C15" t="s">
-        <v>368</v>
-      </c>
-      <c r="D15" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" t="s">
         <v>367</v>
       </c>
-      <c r="B16" t="s">
-        <v>385</v>
-      </c>
-      <c r="C16" t="s">
-        <v>368</v>
-      </c>
       <c r="D16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C18" t="s">
         <v>359</v>
       </c>
       <c r="D18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>361</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
@@ -4157,10 +4163,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="79" t="s">
         <v>277</v>
       </c>
@@ -4171,8 +4177,8 @@
       <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -4204,31 +4210,31 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" t="s">
         <v>367</v>
       </c>
-      <c r="B7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C7" t="s">
-        <v>368</v>
-      </c>
       <c r="D7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4236,7 +4242,7 @@
         <v>363</v>
       </c>
       <c r="B8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4247,7 +4253,7 @@
         <v>361</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4258,7 +4264,7 @@
         <v>363</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4269,7 +4275,7 @@
         <v>363</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4280,7 +4286,7 @@
         <v>363</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4291,7 +4297,7 @@
         <v>363</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4302,7 +4308,7 @@
         <v>363</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4313,7 +4319,7 @@
         <v>363</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4383,8 +4389,8 @@
       <c r="C5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="113"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="36" t="s">
         <v>20</v>
       </c>
@@ -4396,8 +4402,8 @@
       <c r="C6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="113"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="114"/>
       <c r="F6" s="36" t="s">
         <v>23</v>
       </c>
@@ -4409,8 +4415,8 @@
       <c r="C7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="113"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="114"/>
       <c r="F7" s="36" t="s">
         <v>26</v>
       </c>
@@ -4423,8 +4429,8 @@
       <c r="C8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="113"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="36" t="s">
         <v>29</v>
       </c>
@@ -4437,8 +4443,8 @@
       <c r="C9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="113"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="114"/>
       <c r="F9" s="36" t="s">
         <v>31</v>
       </c>
@@ -4451,8 +4457,8 @@
       <c r="C10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="114"/>
       <c r="F10" s="36" t="s">
         <v>34</v>
       </c>
@@ -4465,8 +4471,8 @@
       <c r="C11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="114"/>
       <c r="F11" s="41" t="s">
         <v>37</v>
       </c>
@@ -4479,8 +4485,8 @@
       <c r="C12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="113"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="41" t="s">
         <v>40</v>
       </c>
@@ -4492,8 +4498,8 @@
       <c r="C13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="113"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="36" t="s">
         <v>42</v>
       </c>
@@ -4505,8 +4511,8 @@
       <c r="C14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="36" t="s">
         <v>45</v>
       </c>
@@ -4518,8 +4524,8 @@
       <c r="C15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="113"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="36" t="s">
         <v>48</v>
       </c>
@@ -4531,8 +4537,8 @@
       <c r="C16" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="113"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="46" t="s">
         <v>51</v>
       </c>
@@ -4545,8 +4551,8 @@
       <c r="C17" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="113"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="46" t="s">
         <v>54</v>
       </c>
@@ -4559,8 +4565,8 @@
       <c r="C18" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="113"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="46" t="s">
         <v>57</v>
       </c>
@@ -4573,8 +4579,8 @@
       <c r="C19" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="113"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4585,8 +4591,8 @@
       <c r="C20" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="113"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4596,14 +4602,14 @@
       <c r="C21" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="113"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="114"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="49"/>
       <c r="C22" s="44"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="113"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="114"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="43" t="s">
@@ -4612,8 +4618,8 @@
       <c r="C23" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="113"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="46" t="s">
         <v>65</v>
       </c>
@@ -4626,8 +4632,8 @@
       <c r="C24" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="113"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="46" t="s">
         <v>68</v>
       </c>
@@ -4639,8 +4645,8 @@
       <c r="C25" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="113"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="46" t="s">
         <v>71</v>
       </c>
@@ -4653,8 +4659,8 @@
       <c r="C26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="114"/>
       <c r="F26" s="46" t="s">
         <v>74</v>
       </c>
@@ -4669,7 +4675,7 @@
       <c r="D27" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="113"/>
+      <c r="E27" s="114"/>
       <c r="F27" s="46" t="s">
         <v>77</v>
       </c>
@@ -4682,8 +4688,8 @@
       <c r="C28" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="113"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="114"/>
       <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4694,8 +4700,8 @@
       <c r="C29" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="115"/>
-      <c r="E29" s="113"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="46" t="s">
         <v>82</v>
       </c>
@@ -4708,8 +4714,8 @@
       <c r="C30" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="113"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="46"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4720,8 +4726,8 @@
       <c r="C31" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="113"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="114"/>
       <c r="F31" s="46" t="s">
         <v>86</v>
       </c>
@@ -4734,8 +4740,8 @@
       <c r="C32" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="113"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="114"/>
       <c r="F32" s="46"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4746,8 +4752,8 @@
       <c r="C33" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="E33" s="113"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="114"/>
       <c r="F33" s="46"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4758,8 +4764,8 @@
       <c r="C34" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="115"/>
-      <c r="E34" s="113"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="114"/>
       <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4770,8 +4776,8 @@
       <c r="C35" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="115"/>
-      <c r="E35" s="113"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="114"/>
       <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4781,15 +4787,15 @@
       <c r="C36" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="115"/>
-      <c r="E36" s="113"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="114"/>
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="51"/>
       <c r="C37" s="44"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="113"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="114"/>
       <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4799,8 +4805,8 @@
       <c r="C38" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="115"/>
-      <c r="E38" s="113"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="114"/>
       <c r="F38" s="46" t="s">
         <v>98</v>
       </c>
@@ -4812,8 +4818,8 @@
       <c r="C39" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="116"/>
-      <c r="E39" s="113"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="114"/>
       <c r="F39" s="46" t="s">
         <v>100</v>
       </c>
@@ -4829,7 +4835,7 @@
       <c r="D40" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="113"/>
+      <c r="E40" s="114"/>
       <c r="F40" s="46" t="s">
         <v>103</v>
       </c>
@@ -4844,7 +4850,7 @@
       <c r="D41" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="113"/>
+      <c r="E41" s="114"/>
       <c r="F41" s="46" t="s">
         <v>105</v>
       </c>
@@ -4860,7 +4866,7 @@
       <c r="D42" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="113"/>
+      <c r="E42" s="114"/>
       <c r="F42" s="46" t="s">
         <v>108</v>
       </c>
@@ -4872,8 +4878,8 @@
       <c r="C43" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="117"/>
-      <c r="E43" s="113"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="114"/>
       <c r="F43" s="46" t="s">
         <v>110</v>
       </c>
@@ -4885,8 +4891,8 @@
       <c r="C44" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="118"/>
-      <c r="E44" s="113"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="114"/>
       <c r="F44" s="46" t="s">
         <v>113</v>
       </c>
@@ -4898,15 +4904,15 @@
       <c r="C45" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="118"/>
-      <c r="E45" s="113"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="114"/>
       <c r="F45" s="46"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="43"/>
       <c r="C46" s="55"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="113"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="114"/>
       <c r="F46" s="46"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4916,8 +4922,8 @@
       <c r="C47" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="118"/>
-      <c r="E47" s="113"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="114"/>
       <c r="F47" s="46" t="s">
         <v>118</v>
       </c>
@@ -4929,14 +4935,14 @@
       <c r="C48" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="118"/>
-      <c r="E48" s="113"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="114"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="56"/>
       <c r="C49" s="55"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="113"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="114"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="43" t="s">
@@ -4945,8 +4951,8 @@
       <c r="C50" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="118"/>
-      <c r="E50" s="113"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="46" t="s">
         <v>123</v>
       </c>
@@ -4958,8 +4964,8 @@
       <c r="C51" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="118"/>
-      <c r="E51" s="113"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="46" t="s">
         <v>126</v>
       </c>
@@ -4971,8 +4977,8 @@
       <c r="C52" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="118"/>
-      <c r="E52" s="113"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="114"/>
       <c r="F52" s="46" t="s">
         <v>129</v>
       </c>
@@ -4984,8 +4990,8 @@
       <c r="C53" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="118"/>
-      <c r="E53" s="113"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="114"/>
       <c r="F53" s="46" t="s">
         <v>132</v>
       </c>
@@ -4997,8 +5003,8 @@
       <c r="C54" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="118"/>
-      <c r="E54" s="113"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="114"/>
       <c r="F54" s="46" t="s">
         <v>135</v>
       </c>
@@ -5010,8 +5016,8 @@
       <c r="C55" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="118"/>
-      <c r="E55" s="113"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="114"/>
       <c r="F55" s="46" t="s">
         <v>138</v>
       </c>
@@ -5023,8 +5029,8 @@
       <c r="C56" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="118"/>
-      <c r="E56" s="113"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="114"/>
       <c r="F56" s="46" t="s">
         <v>141</v>
       </c>
@@ -5032,8 +5038,8 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="43"/>
       <c r="C57" s="55"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="113"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="114"/>
       <c r="F57" s="46"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -5044,8 +5050,8 @@
       <c r="C58" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="118"/>
-      <c r="E58" s="113"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="114"/>
       <c r="F58" s="46" t="s">
         <v>143</v>
       </c>
@@ -5058,8 +5064,8 @@
       <c r="C59" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D59" s="118"/>
-      <c r="E59" s="113"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="114"/>
       <c r="F59" s="46" t="s">
         <v>146</v>
       </c>
@@ -5072,8 +5078,8 @@
       <c r="C60" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="118"/>
-      <c r="E60" s="113"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="114"/>
       <c r="F60" s="46" t="s">
         <v>149</v>
       </c>
@@ -5086,8 +5092,8 @@
       <c r="C61" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="118"/>
-      <c r="E61" s="113"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="114"/>
       <c r="F61" s="46" t="s">
         <v>152</v>
       </c>
@@ -5100,8 +5106,8 @@
       <c r="C62" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="118"/>
-      <c r="E62" s="113"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="114"/>
       <c r="F62" s="46" t="s">
         <v>152</v>
       </c>
@@ -5114,8 +5120,8 @@
       <c r="C63" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="118"/>
-      <c r="E63" s="113"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="114"/>
       <c r="F63" s="46" t="s">
         <v>157</v>
       </c>
@@ -5128,8 +5134,8 @@
       <c r="C64" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="D64" s="118"/>
-      <c r="E64" s="113"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="114"/>
       <c r="F64" s="46" t="s">
         <v>159</v>
       </c>
@@ -5142,8 +5148,8 @@
       <c r="C65" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="118"/>
-      <c r="E65" s="113"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="114"/>
       <c r="F65" s="46" t="s">
         <v>162</v>
       </c>
@@ -5156,8 +5162,8 @@
       <c r="C66" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="D66" s="118"/>
-      <c r="E66" s="113"/>
+      <c r="D66" s="119"/>
+      <c r="E66" s="114"/>
       <c r="F66" s="46" t="s">
         <v>165</v>
       </c>
@@ -5170,8 +5176,8 @@
       <c r="C67" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="D67" s="118"/>
-      <c r="E67" s="113"/>
+      <c r="D67" s="119"/>
+      <c r="E67" s="114"/>
       <c r="F67" s="46" t="s">
         <v>168</v>
       </c>
@@ -5183,8 +5189,8 @@
       <c r="C68" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="118"/>
-      <c r="E68" s="113"/>
+      <c r="D68" s="119"/>
+      <c r="E68" s="114"/>
       <c r="F68" s="46" t="s">
         <v>171</v>
       </c>
@@ -6140,7 +6146,7 @@
       <c r="F160" s="46"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="119" t="s">
+      <c r="A162" s="120" t="s">
         <v>9</v>
       </c>
       <c r="B162" s="23" t="s">
@@ -6160,7 +6166,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="120"/>
+      <c r="A163" s="121"/>
       <c r="B163" s="34" t="s">
         <v>251</v>
       </c>
@@ -6174,7 +6180,7 @@
       <c r="F163" s="46"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="120"/>
+      <c r="A164" s="121"/>
       <c r="B164" s="43" t="s">
         <v>254</v>
       </c>
@@ -6188,7 +6194,7 @@
       <c r="F164" s="46"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="120"/>
+      <c r="A165" s="121"/>
       <c r="B165" s="34" t="s">
         <v>256</v>
       </c>
@@ -6202,7 +6208,7 @@
       <c r="F165" s="46"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="120"/>
+      <c r="A166" s="121"/>
       <c r="B166" s="34" t="s">
         <v>258</v>
       </c>

--- a/my1stProject/apb_subsystem/apb_subsustem_design_arch.xlsx
+++ b/my1stProject/apb_subsystem/apb_subsustem_design_arch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="446">
   <si>
     <t>Target</t>
   </si>
@@ -1614,9 +1614,6 @@
   </si>
   <si>
     <t>..\timers\timers.xlsx</t>
-  </si>
-  <si>
-    <t>..\uartcrosser\uartcrosser.xlsx</t>
   </si>
   <si>
     <t>..\uart\uart.xlsx</t>
@@ -2905,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3385,7 +3382,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="13"/>
       <c r="J27" s="104" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3553,7 +3550,7 @@
       <c r="H37" s="22"/>
       <c r="I37" s="13"/>
       <c r="J37" s="104" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3736,9 +3733,7 @@
       <c r="G48" s="100"/>
       <c r="H48" s="100"/>
       <c r="I48" s="14"/>
-      <c r="J48" s="105" t="s">
-        <v>445</v>
-      </c>
+      <c r="J48" s="105"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
@@ -3798,12 +3793,11 @@
     <hyperlink ref="J22" r:id="rId2"/>
     <hyperlink ref="J24" r:id="rId3"/>
     <hyperlink ref="J25" r:id="rId4"/>
-    <hyperlink ref="J48" r:id="rId5"/>
-    <hyperlink ref="J37" r:id="rId6"/>
-    <hyperlink ref="J27" r:id="rId7"/>
+    <hyperlink ref="J37" r:id="rId5"/>
+    <hyperlink ref="J27" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -4148,8 +4142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
